--- a/水泥.excel/1108/1108(102.1~105.4)4.xlsx
+++ b/水泥.excel/1108/1108(102.1~105.4)4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>金額_x</t>
   </si>
@@ -115,261 +115,27 @@
     <t>停業單位損益合計</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-3,426</t>
-  </si>
-  <si>
-    <t>-40,672</t>
-  </si>
-  <si>
-    <t>-1,007</t>
-  </si>
-  <si>
-    <t>-7,775</t>
-  </si>
-  <si>
-    <t>-154</t>
-  </si>
-  <si>
-    <t>-9,125</t>
-  </si>
-  <si>
     <t>停業單位淨利（淨損）</t>
   </si>
   <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
     <t>備供出售金融資產未實現評價損益</t>
   </si>
   <si>
-    <t>11,788</t>
-  </si>
-  <si>
-    <t>-17,818</t>
-  </si>
-  <si>
-    <t>-211</t>
-  </si>
-  <si>
-    <t>-7,850</t>
-  </si>
-  <si>
-    <t>6,210</t>
-  </si>
-  <si>
-    <t>-8,942</t>
-  </si>
-  <si>
-    <t>-10,542</t>
-  </si>
-  <si>
-    <t>-4,101</t>
-  </si>
-  <si>
-    <t>1,353</t>
-  </si>
-  <si>
-    <t>-12,250</t>
-  </si>
-  <si>
-    <t>1,554</t>
-  </si>
-  <si>
-    <t>6,890</t>
-  </si>
-  <si>
-    <t>-5,812</t>
-  </si>
-  <si>
-    <t>4,581</t>
-  </si>
-  <si>
-    <t>-1,942</t>
-  </si>
-  <si>
-    <t>-8,909</t>
-  </si>
-  <si>
     <t>其他利益及損失淨額</t>
   </si>
   <si>
-    <t>-1,209</t>
-  </si>
-  <si>
-    <t>-8,201</t>
-  </si>
-  <si>
-    <t>-5,457</t>
-  </si>
-  <si>
-    <t>-28,701</t>
-  </si>
-  <si>
-    <t>-5,346</t>
-  </si>
-  <si>
-    <t>50,542</t>
-  </si>
-  <si>
-    <t>-10,389</t>
-  </si>
-  <si>
-    <t>27,305</t>
-  </si>
-  <si>
-    <t>-3,164</t>
-  </si>
-  <si>
-    <t>-9,326</t>
-  </si>
-  <si>
-    <t>-5,575</t>
-  </si>
-  <si>
-    <t>2,524</t>
-  </si>
-  <si>
-    <t>-3,006</t>
-  </si>
-  <si>
-    <t>-3,968</t>
-  </si>
-  <si>
-    <t>-2,808</t>
-  </si>
-  <si>
-    <t>-18,215</t>
-  </si>
-  <si>
     <t>其他收入</t>
   </si>
   <si>
-    <t>5,909</t>
-  </si>
-  <si>
-    <t>7,433</t>
-  </si>
-  <si>
-    <t>6,000</t>
-  </si>
-  <si>
-    <t>38,627</t>
-  </si>
-  <si>
-    <t>4,200</t>
-  </si>
-  <si>
-    <t>8,233</t>
-  </si>
-  <si>
-    <t>13,256</t>
-  </si>
-  <si>
-    <t>28,540</t>
-  </si>
-  <si>
-    <t>3,960</t>
-  </si>
-  <si>
-    <t>9,918</t>
-  </si>
-  <si>
-    <t>13,813</t>
-  </si>
-  <si>
-    <t>32,084</t>
-  </si>
-  <si>
-    <t>4,292</t>
-  </si>
-  <si>
-    <t>6,780</t>
-  </si>
-  <si>
-    <t>8,803</t>
-  </si>
-  <si>
-    <t>24,458</t>
-  </si>
-  <si>
     <t>其他收益</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>其他收益及費損淨額</t>
   </si>
   <si>
-    <t>-9,647</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
     <t>其他綜合損益（淨額）</t>
   </si>
   <si>
-    <t>8,578</t>
-  </si>
-  <si>
-    <t>-18,972</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>-10,140</t>
-  </si>
-  <si>
-    <t>12,131</t>
-  </si>
-  <si>
-    <t>-8,322</t>
-  </si>
-  <si>
-    <t>-12,941</t>
-  </si>
-  <si>
-    <t>11,775</t>
-  </si>
-  <si>
-    <t>1,625</t>
-  </si>
-  <si>
-    <t>-12,436</t>
-  </si>
-  <si>
-    <t>3,144</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>-4,655</t>
-  </si>
-  <si>
-    <t>7,050</t>
-  </si>
-  <si>
-    <t>-2,244</t>
-  </si>
-  <si>
-    <t>-11,471</t>
-  </si>
-  <si>
     <t>可能重分類至損益之其他項目</t>
   </si>
   <si>
@@ -379,150 +145,15 @@
     <t>國外營運機構財務報表換算之兌換差額</t>
   </si>
   <si>
-    <t>-3,210</t>
-  </si>
-  <si>
-    <t>-1,154</t>
-  </si>
-  <si>
-    <t>489</t>
-  </si>
-  <si>
-    <t>-7,152</t>
-  </si>
-  <si>
-    <t>5,921</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>-2,399</t>
-  </si>
-  <si>
-    <t>1,239</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>-186</t>
-  </si>
-  <si>
-    <t>1,590</t>
-  </si>
-  <si>
-    <t>1,426</t>
-  </si>
-  <si>
-    <t>1,157</t>
-  </si>
-  <si>
-    <t>2,469</t>
-  </si>
-  <si>
-    <t>-302</t>
-  </si>
-  <si>
-    <t>-56</t>
-  </si>
-  <si>
     <t>基本每股盈餘</t>
   </si>
   <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
     <t>已實現銷貨（損）益</t>
   </si>
   <si>
     <t>所得稅費用（利益）合計</t>
   </si>
   <si>
-    <t>20,742</t>
-  </si>
-  <si>
-    <t>10,901</t>
-  </si>
-  <si>
-    <t>14,486</t>
-  </si>
-  <si>
-    <t>48,891</t>
-  </si>
-  <si>
-    <t>17,869</t>
-  </si>
-  <si>
-    <t>26,172</t>
-  </si>
-  <si>
-    <t>19,165</t>
-  </si>
-  <si>
-    <t>70,993</t>
-  </si>
-  <si>
-    <t>31,941</t>
-  </si>
-  <si>
-    <t>53,379</t>
-  </si>
-  <si>
-    <t>17,122</t>
-  </si>
-  <si>
-    <t>112,889</t>
-  </si>
-  <si>
-    <t>21,416</t>
-  </si>
-  <si>
-    <t>29,912</t>
-  </si>
-  <si>
-    <t>17,456</t>
-  </si>
-  <si>
-    <t>77,128</t>
-  </si>
-  <si>
     <t>採用權益法認列之關聯企業及合資損益之份額淨額</t>
   </si>
   <si>
@@ -532,735 +163,63 @@
     <t>推銷費用</t>
   </si>
   <si>
-    <t>19,483</t>
-  </si>
-  <si>
-    <t>33,250</t>
-  </si>
-  <si>
-    <t>33,140</t>
-  </si>
-  <si>
-    <t>122,108</t>
-  </si>
-  <si>
-    <t>31,110</t>
-  </si>
-  <si>
-    <t>33,370</t>
-  </si>
-  <si>
-    <t>31,355</t>
-  </si>
-  <si>
-    <t>139,773</t>
-  </si>
-  <si>
-    <t>29,937</t>
-  </si>
-  <si>
-    <t>30,563</t>
-  </si>
-  <si>
-    <t>28,008</t>
-  </si>
-  <si>
-    <t>135,878</t>
-  </si>
-  <si>
-    <t>26,009</t>
-  </si>
-  <si>
-    <t>27,705</t>
-  </si>
-  <si>
-    <t>26,355</t>
-  </si>
-  <si>
-    <t>95,299</t>
-  </si>
-  <si>
     <t>未實現銷貨（損）益</t>
   </si>
   <si>
     <t>本期淨利（淨損）</t>
   </si>
   <si>
-    <t>63,869</t>
-  </si>
-  <si>
-    <t>42,224</t>
-  </si>
-  <si>
-    <t>53,016</t>
-  </si>
-  <si>
-    <t>162,817</t>
-  </si>
-  <si>
-    <t>68,510</t>
-  </si>
-  <si>
-    <t>150,408</t>
-  </si>
-  <si>
-    <t>77,193</t>
-  </si>
-  <si>
-    <t>367,067</t>
-  </si>
-  <si>
-    <t>155,005</t>
-  </si>
-  <si>
-    <t>153,855</t>
-  </si>
-  <si>
-    <t>90,634</t>
-  </si>
-  <si>
-    <t>462,763</t>
-  </si>
-  <si>
-    <t>104,371</t>
-  </si>
-  <si>
-    <t>90,393</t>
-  </si>
-  <si>
-    <t>78,783</t>
-  </si>
-  <si>
-    <t>315,077</t>
-  </si>
-  <si>
     <t>本期綜合損益總額</t>
   </si>
   <si>
-    <t>72,447</t>
-  </si>
-  <si>
-    <t>23,252</t>
-  </si>
-  <si>
-    <t>53,294</t>
-  </si>
-  <si>
-    <t>152,677</t>
-  </si>
-  <si>
-    <t>80,641</t>
-  </si>
-  <si>
-    <t>142,086</t>
-  </si>
-  <si>
-    <t>64,252</t>
-  </si>
-  <si>
-    <t>378,842</t>
-  </si>
-  <si>
-    <t>156,630</t>
-  </si>
-  <si>
-    <t>141,419</t>
-  </si>
-  <si>
-    <t>93,778</t>
-  </si>
-  <si>
-    <t>462,877</t>
-  </si>
-  <si>
-    <t>99,716</t>
-  </si>
-  <si>
-    <t>97,443</t>
-  </si>
-  <si>
-    <t>76,539</t>
-  </si>
-  <si>
-    <t>303,606</t>
-  </si>
-  <si>
     <t>母公司業主（淨利／損）</t>
   </si>
   <si>
-    <t>69,554</t>
-  </si>
-  <si>
-    <t>46,151</t>
-  </si>
-  <si>
-    <t>55,302</t>
-  </si>
-  <si>
-    <t>179,445</t>
-  </si>
-  <si>
-    <t>73,015</t>
-  </si>
-  <si>
-    <t>151,560</t>
-  </si>
-  <si>
-    <t>81,378</t>
-  </si>
-  <si>
-    <t>379,540</t>
-  </si>
-  <si>
-    <t>156,298</t>
-  </si>
-  <si>
-    <t>159,250</t>
-  </si>
-  <si>
-    <t>91,780</t>
-  </si>
-  <si>
-    <t>470,161</t>
-  </si>
-  <si>
-    <t>103,392</t>
-  </si>
-  <si>
-    <t>91,452</t>
-  </si>
-  <si>
-    <t>79,013</t>
-  </si>
-  <si>
-    <t>315,334</t>
-  </si>
-  <si>
     <t>母公司業主（綜合損益）</t>
   </si>
   <si>
-    <t>79,103</t>
-  </si>
-  <si>
-    <t>27,300</t>
-  </si>
-  <si>
-    <t>55,301</t>
-  </si>
-  <si>
-    <t>171,043</t>
-  </si>
-  <si>
-    <t>82,881</t>
-  </si>
-  <si>
-    <t>142,920</t>
-  </si>
-  <si>
-    <t>68,982</t>
-  </si>
-  <si>
-    <t>390,167</t>
-  </si>
-  <si>
-    <t>157,746</t>
-  </si>
-  <si>
-    <t>146,692</t>
-  </si>
-  <si>
-    <t>94,954</t>
-  </si>
-  <si>
-    <t>470,063</t>
-  </si>
-  <si>
-    <t>98,737</t>
-  </si>
-  <si>
-    <t>98,505</t>
-  </si>
-  <si>
-    <t>76,773</t>
-  </si>
-  <si>
-    <t>303,872</t>
-  </si>
-  <si>
     <t>營業利益（損失）</t>
   </si>
   <si>
-    <t>98,223</t>
-  </si>
-  <si>
-    <t>71,337</t>
-  </si>
-  <si>
-    <t>83,940</t>
-  </si>
-  <si>
-    <t>271,131</t>
-  </si>
-  <si>
-    <t>102,969</t>
-  </si>
-  <si>
-    <t>132,606</t>
-  </si>
-  <si>
-    <t>108,015</t>
-  </si>
-  <si>
-    <t>440,566</t>
-  </si>
-  <si>
-    <t>198,438</t>
-  </si>
-  <si>
-    <t>218,071</t>
-  </si>
-  <si>
-    <t>113,645</t>
-  </si>
-  <si>
-    <t>624,343</t>
-  </si>
-  <si>
-    <t>133,019</t>
-  </si>
-  <si>
-    <t>133,165</t>
-  </si>
-  <si>
-    <t>98,283</t>
-  </si>
-  <si>
-    <t>426,326</t>
-  </si>
-  <si>
     <t>營業外收入及支出合計</t>
   </si>
   <si>
-    <t>-13,612</t>
-  </si>
-  <si>
-    <t>-18,212</t>
-  </si>
-  <si>
-    <t>-16,438</t>
-  </si>
-  <si>
-    <t>-59,423</t>
-  </si>
-  <si>
-    <t>-16,590</t>
-  </si>
-  <si>
-    <t>43,974</t>
-  </si>
-  <si>
-    <t>-11,657</t>
-  </si>
-  <si>
-    <t>-2,506</t>
-  </si>
-  <si>
-    <t>-11,492</t>
-  </si>
-  <si>
-    <t>-10,837</t>
-  </si>
-  <si>
-    <t>-2,463</t>
-  </si>
-  <si>
-    <t>-8,019</t>
-  </si>
-  <si>
-    <t>-6,225</t>
-  </si>
-  <si>
-    <t>-5,085</t>
-  </si>
-  <si>
-    <t>-1,890</t>
-  </si>
-  <si>
-    <t>-24,996</t>
-  </si>
-  <si>
     <t>營業成本合計</t>
   </si>
   <si>
-    <t>1,051,860</t>
-  </si>
-  <si>
-    <t>981,797</t>
-  </si>
-  <si>
-    <t>1,040,150</t>
-  </si>
-  <si>
-    <t>4,327,188</t>
-  </si>
-  <si>
-    <t>1,052,909</t>
-  </si>
-  <si>
-    <t>1,077,310</t>
-  </si>
-  <si>
-    <t>1,061,583</t>
-  </si>
-  <si>
-    <t>4,360,174</t>
-  </si>
-  <si>
-    <t>1,021,426</t>
-  </si>
-  <si>
-    <t>1,041,486</t>
-  </si>
-  <si>
-    <t>957,589</t>
-  </si>
-  <si>
-    <t>4,115,087</t>
-  </si>
-  <si>
-    <t>804,827</t>
-  </si>
-  <si>
-    <t>915,660</t>
-  </si>
-  <si>
-    <t>892,483</t>
-  </si>
-  <si>
-    <t>3,588,568</t>
-  </si>
-  <si>
     <t>營業收入合計</t>
   </si>
   <si>
-    <t>1,203,671</t>
-  </si>
-  <si>
-    <t>1,121,734</t>
-  </si>
-  <si>
-    <t>1,195,803</t>
-  </si>
-  <si>
-    <t>4,869,590</t>
-  </si>
-  <si>
-    <t>1,219,347</t>
-  </si>
-  <si>
-    <t>1,276,260</t>
-  </si>
-  <si>
-    <t>1,236,683</t>
-  </si>
-  <si>
-    <t>5,099,198</t>
-  </si>
-  <si>
-    <t>1,290,902</t>
-  </si>
-  <si>
-    <t>1,346,059</t>
-  </si>
-  <si>
-    <t>1,133,105</t>
-  </si>
-  <si>
-    <t>5,021,353</t>
-  </si>
-  <si>
-    <t>995,636</t>
-  </si>
-  <si>
-    <t>1,109,333</t>
-  </si>
-  <si>
-    <t>1,055,508</t>
-  </si>
-  <si>
-    <t>4,251,061</t>
-  </si>
-  <si>
     <t>營業毛利（毛損）</t>
   </si>
   <si>
-    <t>151,811</t>
-  </si>
-  <si>
-    <t>139,937</t>
-  </si>
-  <si>
-    <t>155,653</t>
-  </si>
-  <si>
-    <t>542,402</t>
-  </si>
-  <si>
-    <t>166,438</t>
-  </si>
-  <si>
-    <t>198,950</t>
-  </si>
-  <si>
-    <t>175,100</t>
-  </si>
-  <si>
-    <t>739,024</t>
-  </si>
-  <si>
-    <t>269,476</t>
-  </si>
-  <si>
-    <t>304,573</t>
-  </si>
-  <si>
-    <t>175,516</t>
-  </si>
-  <si>
-    <t>906,266</t>
-  </si>
-  <si>
-    <t>190,809</t>
-  </si>
-  <si>
-    <t>193,673</t>
-  </si>
-  <si>
-    <t>163,025</t>
-  </si>
-  <si>
-    <t>662,493</t>
-  </si>
-  <si>
     <t>營業毛利（毛損）淨額</t>
   </si>
   <si>
     <t>營業費用合計</t>
   </si>
   <si>
-    <t>53,588</t>
-  </si>
-  <si>
-    <t>68,600</t>
-  </si>
-  <si>
-    <t>71,713</t>
-  </si>
-  <si>
-    <t>271,271</t>
-  </si>
-  <si>
-    <t>63,469</t>
-  </si>
-  <si>
-    <t>66,344</t>
-  </si>
-  <si>
-    <t>67,085</t>
-  </si>
-  <si>
-    <t>298,458</t>
-  </si>
-  <si>
-    <t>71,038</t>
-  </si>
-  <si>
-    <t>76,855</t>
-  </si>
-  <si>
-    <t>61,871</t>
-  </si>
-  <si>
-    <t>281,937</t>
-  </si>
-  <si>
-    <t>57,790</t>
-  </si>
-  <si>
-    <t>60,608</t>
-  </si>
-  <si>
-    <t>64,748</t>
-  </si>
-  <si>
-    <t>236,273</t>
-  </si>
-  <si>
     <t>現金流量避險中屬有效避險部分之避險工具利益(損失)</t>
   </si>
   <si>
     <t>確定福利計畫之再衡量數</t>
   </si>
   <si>
-    <t>4,862</t>
-  </si>
-  <si>
-    <t>14,637</t>
-  </si>
-  <si>
-    <t>-8,202</t>
-  </si>
-  <si>
     <t>稀釋每股盈餘</t>
   </si>
   <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
     <t>稅前淨利（淨損）</t>
   </si>
   <si>
-    <t>84,611</t>
-  </si>
-  <si>
-    <t>53,125</t>
-  </si>
-  <si>
-    <t>67,502</t>
-  </si>
-  <si>
-    <t>211,708</t>
-  </si>
-  <si>
-    <t>86,379</t>
-  </si>
-  <si>
-    <t>176,580</t>
-  </si>
-  <si>
-    <t>96,358</t>
-  </si>
-  <si>
-    <t>438,060</t>
-  </si>
-  <si>
-    <t>186,946</t>
-  </si>
-  <si>
-    <t>207,234</t>
-  </si>
-  <si>
-    <t>111,182</t>
-  </si>
-  <si>
-    <t>616,324</t>
-  </si>
-  <si>
-    <t>126,794</t>
-  </si>
-  <si>
-    <t>128,080</t>
-  </si>
-  <si>
-    <t>96,393</t>
-  </si>
-  <si>
-    <t>401,330</t>
-  </si>
-  <si>
     <t>管理費用</t>
   </si>
   <si>
-    <t>34,105</t>
-  </si>
-  <si>
-    <t>35,350</t>
-  </si>
-  <si>
-    <t>38,573</t>
-  </si>
-  <si>
-    <t>149,163</t>
-  </si>
-  <si>
-    <t>32,359</t>
-  </si>
-  <si>
-    <t>32,974</t>
-  </si>
-  <si>
-    <t>35,730</t>
-  </si>
-  <si>
-    <t>158,685</t>
-  </si>
-  <si>
-    <t>41,101</t>
-  </si>
-  <si>
-    <t>46,292</t>
-  </si>
-  <si>
-    <t>33,863</t>
-  </si>
-  <si>
-    <t>146,059</t>
-  </si>
-  <si>
-    <t>31,781</t>
-  </si>
-  <si>
-    <t>32,903</t>
-  </si>
-  <si>
-    <t>38,393</t>
-  </si>
-  <si>
-    <t>140,974</t>
-  </si>
-  <si>
     <t>繼續營業單位本期淨利（淨損）</t>
   </si>
   <si>
-    <t>94,060</t>
-  </si>
-  <si>
-    <t>503,435</t>
-  </si>
-  <si>
-    <t>105,378</t>
-  </si>
-  <si>
-    <t>98,168</t>
-  </si>
-  <si>
-    <t>78,937</t>
-  </si>
-  <si>
-    <t>324,202</t>
-  </si>
-  <si>
     <t>繼續營業單位淨利（淨損）</t>
   </si>
   <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
     <t>與可能重分類之項目相關之所得稅</t>
   </si>
   <si>
@@ -1270,105 +229,15 @@
     <t>財務成本淨額</t>
   </si>
   <si>
-    <t>18,312</t>
-  </si>
-  <si>
-    <t>17,444</t>
-  </si>
-  <si>
-    <t>16,981</t>
-  </si>
-  <si>
-    <t>69,349</t>
-  </si>
-  <si>
-    <t>15,444</t>
-  </si>
-  <si>
-    <t>14,801</t>
-  </si>
-  <si>
-    <t>14,524</t>
-  </si>
-  <si>
-    <t>58,351</t>
-  </si>
-  <si>
-    <t>12,288</t>
-  </si>
-  <si>
-    <t>11,429</t>
-  </si>
-  <si>
-    <t>10,701</t>
-  </si>
-  <si>
-    <t>42,627</t>
-  </si>
-  <si>
-    <t>7,511</t>
-  </si>
-  <si>
-    <t>7,897</t>
-  </si>
-  <si>
-    <t>7,885</t>
-  </si>
-  <si>
-    <t>31,239</t>
-  </si>
-  <si>
     <t>金融資產重分類淨損益</t>
   </si>
   <si>
     <t>銷貨折讓</t>
   </si>
   <si>
-    <t>2,736</t>
-  </si>
-  <si>
-    <t>3,013</t>
-  </si>
-  <si>
-    <t>1,724</t>
-  </si>
-  <si>
-    <t>9,695</t>
-  </si>
-  <si>
-    <t>1,630</t>
-  </si>
-  <si>
-    <t>1,812</t>
-  </si>
-  <si>
-    <t>2,450</t>
-  </si>
-  <si>
     <t>銷貨收入</t>
   </si>
   <si>
-    <t>1,206,407</t>
-  </si>
-  <si>
-    <t>1,124,747</t>
-  </si>
-  <si>
-    <t>1,197,527</t>
-  </si>
-  <si>
-    <t>4,879,285</t>
-  </si>
-  <si>
-    <t>1,220,977</t>
-  </si>
-  <si>
-    <t>1,278,072</t>
-  </si>
-  <si>
-    <t>1,239,133</t>
-  </si>
-  <si>
     <t>銷貨收入淨額</t>
   </si>
   <si>
@@ -1378,100 +247,7 @@
     <t>非控制權益（淨利／損）</t>
   </si>
   <si>
-    <t>-5,685</t>
-  </si>
-  <si>
-    <t>-3,927</t>
-  </si>
-  <si>
-    <t>-2,286</t>
-  </si>
-  <si>
-    <t>-16,628</t>
-  </si>
-  <si>
-    <t>-4,505</t>
-  </si>
-  <si>
-    <t>-1,152</t>
-  </si>
-  <si>
-    <t>-4,185</t>
-  </si>
-  <si>
-    <t>-12,473</t>
-  </si>
-  <si>
-    <t>-1,293</t>
-  </si>
-  <si>
-    <t>-5,395</t>
-  </si>
-  <si>
-    <t>-1,146</t>
-  </si>
-  <si>
-    <t>-7,398</t>
-  </si>
-  <si>
-    <t>979</t>
-  </si>
-  <si>
-    <t>-1,059</t>
-  </si>
-  <si>
-    <t>-230</t>
-  </si>
-  <si>
-    <t>-257</t>
-  </si>
-  <si>
     <t>非控制權益（綜合損益）</t>
-  </si>
-  <si>
-    <t>-6,656</t>
-  </si>
-  <si>
-    <t>-4,048</t>
-  </si>
-  <si>
-    <t>-2,007</t>
-  </si>
-  <si>
-    <t>-18,366</t>
-  </si>
-  <si>
-    <t>-2,240</t>
-  </si>
-  <si>
-    <t>-834</t>
-  </si>
-  <si>
-    <t>-4,730</t>
-  </si>
-  <si>
-    <t>-11,325</t>
-  </si>
-  <si>
-    <t>-1,116</t>
-  </si>
-  <si>
-    <t>-5,273</t>
-  </si>
-  <si>
-    <t>-1,176</t>
-  </si>
-  <si>
-    <t>-7,186</t>
-  </si>
-  <si>
-    <t>-1,062</t>
-  </si>
-  <si>
-    <t>-234</t>
-  </si>
-  <si>
-    <t>-266</t>
   </si>
 </sst>
 </file>
@@ -1930,14 +706,14 @@
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1946,14 +722,14 @@
       <c r="G2" t="s"/>
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
-      <c r="J2" t="s">
-        <v>33</v>
+      <c r="J2" t="n">
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>33</v>
+      <c r="L2" t="n">
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1966,38 +742,38 @@
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="s"/>
-      <c r="V2" t="s">
-        <v>34</v>
+      <c r="V2" t="n">
+        <v>-3426</v>
       </c>
       <c r="W2" t="n">
         <v>-0.3</v>
       </c>
-      <c r="X2" t="s">
-        <v>35</v>
+      <c r="X2" t="n">
+        <v>-40672</v>
       </c>
       <c r="Y2" t="n">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
+      <c r="Z2" t="n">
+        <v>-1007</v>
       </c>
       <c r="AA2" t="n">
         <v>-0.1</v>
       </c>
-      <c r="AB2" t="s">
-        <v>37</v>
+      <c r="AB2" t="n">
+        <v>-7775</v>
       </c>
       <c r="AC2" t="n">
         <v>-0.7</v>
       </c>
-      <c r="AD2" t="s">
-        <v>38</v>
+      <c r="AD2" t="n">
+        <v>-154</v>
       </c>
       <c r="AE2" t="n">
         <v>-0.01</v>
       </c>
-      <c r="AF2" t="s">
-        <v>39</v>
+      <c r="AF2" t="n">
+        <v>-9125</v>
       </c>
       <c r="AG2" t="n">
         <v>-0.21</v>
@@ -2005,7 +781,7 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s"/>
       <c r="C3" t="s"/>
@@ -2029,8 +805,8 @@
       <c r="U3" t="s"/>
       <c r="V3" t="s"/>
       <c r="W3" t="s"/>
-      <c r="X3" t="s">
-        <v>41</v>
+      <c r="X3" t="n">
+        <v>-0.07000000000000001</v>
       </c>
       <c r="Y3" t="s"/>
       <c r="Z3" t="s"/>
@@ -2039,107 +815,107 @@
       <c r="AC3" t="s"/>
       <c r="AD3" t="s"/>
       <c r="AE3" t="s"/>
-      <c r="AF3" t="s">
-        <v>42</v>
+      <c r="AF3" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AG3" t="s"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11788</v>
       </c>
       <c r="C4" t="n">
         <v>0.98</v>
       </c>
-      <c r="D4" t="s">
-        <v>45</v>
+      <c r="D4" t="n">
+        <v>-17818</v>
       </c>
       <c r="E4" t="n">
         <v>-1.59</v>
       </c>
-      <c r="F4" t="s">
-        <v>46</v>
+      <c r="F4" t="n">
+        <v>-211</v>
       </c>
       <c r="G4" t="n">
         <v>-0.02</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
+      <c r="H4" t="n">
+        <v>-7850</v>
       </c>
       <c r="I4" t="n">
         <v>-0.16</v>
       </c>
-      <c r="J4" t="s">
-        <v>48</v>
+      <c r="J4" t="n">
+        <v>6210</v>
       </c>
       <c r="K4" t="n">
         <v>0.51</v>
       </c>
-      <c r="L4" t="s">
-        <v>49</v>
+      <c r="L4" t="n">
+        <v>-8942</v>
       </c>
       <c r="M4" t="n">
         <v>-0.7</v>
       </c>
-      <c r="N4" t="s">
-        <v>50</v>
+      <c r="N4" t="n">
+        <v>-10542</v>
       </c>
       <c r="O4" t="n">
         <v>-0.85</v>
       </c>
-      <c r="P4" t="s">
-        <v>51</v>
+      <c r="P4" t="n">
+        <v>-4101</v>
       </c>
       <c r="Q4" t="n">
         <v>-0.08</v>
       </c>
-      <c r="R4" t="s">
-        <v>52</v>
+      <c r="R4" t="n">
+        <v>1353</v>
       </c>
       <c r="S4" t="n">
         <v>0.1</v>
       </c>
-      <c r="T4" t="s">
-        <v>53</v>
+      <c r="T4" t="n">
+        <v>-12250</v>
       </c>
       <c r="U4" t="n">
         <v>-0.91</v>
       </c>
-      <c r="V4" t="s">
-        <v>54</v>
+      <c r="V4" t="n">
+        <v>1554</v>
       </c>
       <c r="W4" t="n">
         <v>0.14</v>
       </c>
-      <c r="X4" t="s">
-        <v>55</v>
+      <c r="X4" t="n">
+        <v>6890</v>
       </c>
       <c r="Y4" t="n">
         <v>0.14</v>
       </c>
-      <c r="Z4" t="s">
-        <v>56</v>
+      <c r="Z4" t="n">
+        <v>-5812</v>
       </c>
       <c r="AA4" t="n">
         <v>-0.58</v>
       </c>
-      <c r="AB4" t="s">
-        <v>57</v>
+      <c r="AB4" t="n">
+        <v>4581</v>
       </c>
       <c r="AC4" t="n">
         <v>0.41</v>
       </c>
-      <c r="AD4" t="s">
-        <v>58</v>
+      <c r="AD4" t="n">
+        <v>-1942</v>
       </c>
       <c r="AE4" t="n">
         <v>-0.18</v>
       </c>
-      <c r="AF4" t="s">
-        <v>59</v>
+      <c r="AF4" t="n">
+        <v>-8909</v>
       </c>
       <c r="AG4" t="n">
         <v>-0.21</v>
@@ -2147,100 +923,100 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-1209</v>
       </c>
       <c r="C5" t="n">
         <v>-0.1</v>
       </c>
-      <c r="D5" t="s">
-        <v>62</v>
+      <c r="D5" t="n">
+        <v>-8201</v>
       </c>
       <c r="E5" t="n">
         <v>-0.73</v>
       </c>
-      <c r="F5" t="s">
-        <v>63</v>
+      <c r="F5" t="n">
+        <v>-5457</v>
       </c>
       <c r="G5" t="n">
         <v>-0.46</v>
       </c>
-      <c r="H5" t="s">
-        <v>64</v>
+      <c r="H5" t="n">
+        <v>-28701</v>
       </c>
       <c r="I5" t="n">
         <v>-0.59</v>
       </c>
-      <c r="J5" t="s">
-        <v>65</v>
+      <c r="J5" t="n">
+        <v>-5346</v>
       </c>
       <c r="K5" t="n">
         <v>-0.44</v>
       </c>
-      <c r="L5" t="s">
-        <v>66</v>
+      <c r="L5" t="n">
+        <v>50542</v>
       </c>
       <c r="M5" t="n">
         <v>3.96</v>
       </c>
-      <c r="N5" t="s">
-        <v>67</v>
+      <c r="N5" t="n">
+        <v>-10389</v>
       </c>
       <c r="O5" t="n">
         <v>-0.84</v>
       </c>
-      <c r="P5" t="s">
-        <v>68</v>
+      <c r="P5" t="n">
+        <v>27305</v>
       </c>
       <c r="Q5" t="n">
         <v>0.54</v>
       </c>
-      <c r="R5" t="s">
-        <v>69</v>
+      <c r="R5" t="n">
+        <v>-3164</v>
       </c>
       <c r="S5" t="n">
         <v>-0.25</v>
       </c>
-      <c r="T5" t="s">
-        <v>70</v>
+      <c r="T5" t="n">
+        <v>-9326</v>
       </c>
       <c r="U5" t="n">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="V5" t="s">
-        <v>71</v>
+      <c r="V5" t="n">
+        <v>-5575</v>
       </c>
       <c r="W5" t="n">
         <v>-0.49</v>
       </c>
-      <c r="X5" t="s">
-        <v>72</v>
+      <c r="X5" t="n">
+        <v>2524</v>
       </c>
       <c r="Y5" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z5" t="s">
-        <v>73</v>
+      <c r="Z5" t="n">
+        <v>-3006</v>
       </c>
       <c r="AA5" t="n">
         <v>-0.3</v>
       </c>
-      <c r="AB5" t="s">
-        <v>74</v>
+      <c r="AB5" t="n">
+        <v>-3968</v>
       </c>
       <c r="AC5" t="n">
         <v>-0.36</v>
       </c>
-      <c r="AD5" t="s">
-        <v>75</v>
+      <c r="AD5" t="n">
+        <v>-2808</v>
       </c>
       <c r="AE5" t="n">
         <v>-0.27</v>
       </c>
-      <c r="AF5" t="s">
-        <v>76</v>
+      <c r="AF5" t="n">
+        <v>-18215</v>
       </c>
       <c r="AG5" t="n">
         <v>-0.43</v>
@@ -2248,100 +1024,100 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5909</v>
       </c>
       <c r="C6" t="n">
         <v>0.49</v>
       </c>
-      <c r="D6" t="s">
-        <v>79</v>
+      <c r="D6" t="n">
+        <v>7433</v>
       </c>
       <c r="E6" t="n">
         <v>0.66</v>
       </c>
-      <c r="F6" t="s">
-        <v>80</v>
+      <c r="F6" t="n">
+        <v>6000</v>
       </c>
       <c r="G6" t="n">
         <v>0.5</v>
       </c>
-      <c r="H6" t="s">
-        <v>81</v>
+      <c r="H6" t="n">
+        <v>38627</v>
       </c>
       <c r="I6" t="n">
         <v>0.79</v>
       </c>
-      <c r="J6" t="s">
-        <v>82</v>
+      <c r="J6" t="n">
+        <v>4200</v>
       </c>
       <c r="K6" t="n">
         <v>0.34</v>
       </c>
-      <c r="L6" t="s">
-        <v>83</v>
+      <c r="L6" t="n">
+        <v>8233</v>
       </c>
       <c r="M6" t="n">
         <v>0.65</v>
       </c>
-      <c r="N6" t="s">
-        <v>84</v>
+      <c r="N6" t="n">
+        <v>13256</v>
       </c>
       <c r="O6" t="n">
         <v>1.07</v>
       </c>
-      <c r="P6" t="s">
-        <v>85</v>
+      <c r="P6" t="n">
+        <v>28540</v>
       </c>
       <c r="Q6" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="R6" t="s">
-        <v>86</v>
+      <c r="R6" t="n">
+        <v>3960</v>
       </c>
       <c r="S6" t="n">
         <v>0.31</v>
       </c>
-      <c r="T6" t="s">
-        <v>87</v>
+      <c r="T6" t="n">
+        <v>9918</v>
       </c>
       <c r="U6" t="n">
         <v>0.74</v>
       </c>
-      <c r="V6" t="s">
-        <v>88</v>
+      <c r="V6" t="n">
+        <v>13813</v>
       </c>
       <c r="W6" t="n">
         <v>1.22</v>
       </c>
-      <c r="X6" t="s">
-        <v>89</v>
+      <c r="X6" t="n">
+        <v>32084</v>
       </c>
       <c r="Y6" t="n">
         <v>0.64</v>
       </c>
-      <c r="Z6" t="s">
-        <v>90</v>
+      <c r="Z6" t="n">
+        <v>4292</v>
       </c>
       <c r="AA6" t="n">
         <v>0.43</v>
       </c>
-      <c r="AB6" t="s">
-        <v>91</v>
+      <c r="AB6" t="n">
+        <v>6780</v>
       </c>
       <c r="AC6" t="n">
         <v>0.61</v>
       </c>
-      <c r="AD6" t="s">
-        <v>92</v>
+      <c r="AD6" t="n">
+        <v>8803</v>
       </c>
       <c r="AE6" t="n">
         <v>0.83</v>
       </c>
-      <c r="AF6" t="s">
-        <v>93</v>
+      <c r="AF6" t="n">
+        <v>24458</v>
       </c>
       <c r="AG6" t="n">
         <v>0.58</v>
@@ -2349,7 +1125,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -2371,8 +1147,8 @@
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="s"/>
-      <c r="V7" t="s">
-        <v>33</v>
+      <c r="V7" t="n">
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -2383,8 +1159,8 @@
       <c r="AA7" t="s"/>
       <c r="AB7" t="s"/>
       <c r="AC7" t="s"/>
-      <c r="AD7" t="s">
-        <v>95</v>
+      <c r="AD7" t="n">
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -2394,16 +1170,16 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2412,14 +1188,14 @@
       <c r="G8" t="s"/>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
-      <c r="J8" t="s">
-        <v>33</v>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>33</v>
+      <c r="L8" t="n">
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -2430,40 +1206,40 @@
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
-      <c r="T8" t="s">
-        <v>97</v>
+      <c r="T8" t="n">
+        <v>-9647</v>
       </c>
       <c r="U8" t="n">
         <v>-0.72</v>
       </c>
-      <c r="V8" t="s">
-        <v>33</v>
+      <c r="V8" t="n">
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
-      <c r="X8" t="s">
-        <v>98</v>
+      <c r="X8" t="n">
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="s"/>
       <c r="AA8" t="s"/>
-      <c r="AB8" t="s">
-        <v>99</v>
+      <c r="AB8" t="n">
+        <v>100</v>
       </c>
       <c r="AC8" t="n">
         <v>0.01</v>
       </c>
-      <c r="AD8" t="s">
-        <v>95</v>
+      <c r="AD8" t="n">
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
       </c>
-      <c r="AF8" t="s">
-        <v>100</v>
+      <c r="AF8" t="n">
+        <v>106</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -2471,100 +1247,100 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8578</v>
       </c>
       <c r="C9" t="n">
         <v>0.71</v>
       </c>
-      <c r="D9" t="s">
-        <v>103</v>
+      <c r="D9" t="n">
+        <v>-18972</v>
       </c>
       <c r="E9" t="n">
         <v>-1.69</v>
       </c>
-      <c r="F9" t="s">
-        <v>104</v>
+      <c r="F9" t="n">
+        <v>278</v>
       </c>
       <c r="G9" t="n">
         <v>0.02</v>
       </c>
-      <c r="H9" t="s">
-        <v>105</v>
+      <c r="H9" t="n">
+        <v>-10140</v>
       </c>
       <c r="I9" t="n">
         <v>-0.21</v>
       </c>
-      <c r="J9" t="s">
-        <v>106</v>
+      <c r="J9" t="n">
+        <v>12131</v>
       </c>
       <c r="K9" t="n">
         <v>0.99</v>
       </c>
-      <c r="L9" t="s">
-        <v>107</v>
+      <c r="L9" t="n">
+        <v>-8322</v>
       </c>
       <c r="M9" t="n">
         <v>-0.65</v>
       </c>
-      <c r="N9" t="s">
-        <v>108</v>
+      <c r="N9" t="n">
+        <v>-12941</v>
       </c>
       <c r="O9" t="n">
         <v>-1.05</v>
       </c>
-      <c r="P9" t="s">
-        <v>109</v>
+      <c r="P9" t="n">
+        <v>11775</v>
       </c>
       <c r="Q9" t="n">
         <v>0.23</v>
       </c>
-      <c r="R9" t="s">
-        <v>110</v>
+      <c r="R9" t="n">
+        <v>1625</v>
       </c>
       <c r="S9" t="n">
         <v>0.13</v>
       </c>
-      <c r="T9" t="s">
-        <v>111</v>
+      <c r="T9" t="n">
+        <v>-12436</v>
       </c>
       <c r="U9" t="n">
         <v>-0.92</v>
       </c>
-      <c r="V9" t="s">
-        <v>112</v>
+      <c r="V9" t="n">
+        <v>3144</v>
       </c>
       <c r="W9" t="n">
         <v>0.28</v>
       </c>
-      <c r="X9" t="s">
-        <v>113</v>
+      <c r="X9" t="n">
+        <v>114</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
-      <c r="Z9" t="s">
-        <v>114</v>
+      <c r="Z9" t="n">
+        <v>-4655</v>
       </c>
       <c r="AA9" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AB9" t="s">
-        <v>115</v>
+      <c r="AB9" t="n">
+        <v>7050</v>
       </c>
       <c r="AC9" t="n">
         <v>0.64</v>
       </c>
-      <c r="AD9" t="s">
-        <v>116</v>
+      <c r="AD9" t="n">
+        <v>-2244</v>
       </c>
       <c r="AE9" t="n">
         <v>-0.21</v>
       </c>
-      <c r="AF9" t="s">
-        <v>117</v>
+      <c r="AF9" t="n">
+        <v>-11471</v>
       </c>
       <c r="AG9" t="n">
         <v>-0.27</v>
@@ -2572,7 +1348,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -2590,8 +1366,8 @@
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s">
-        <v>33</v>
+      <c r="R10" t="n">
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -2613,7 +1389,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -2631,8 +1407,8 @@
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s">
-        <v>33</v>
+      <c r="R11" t="n">
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -2654,100 +1430,100 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>121</v>
+        <v>42</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-3210</v>
       </c>
       <c r="C12" t="n">
         <v>-0.27</v>
       </c>
-      <c r="D12" t="s">
-        <v>122</v>
+      <c r="D12" t="n">
+        <v>-1154</v>
       </c>
       <c r="E12" t="n">
         <v>-0.1</v>
       </c>
-      <c r="F12" t="s">
-        <v>123</v>
+      <c r="F12" t="n">
+        <v>489</v>
       </c>
       <c r="G12" t="n">
         <v>0.04</v>
       </c>
-      <c r="H12" t="s">
-        <v>124</v>
+      <c r="H12" t="n">
+        <v>-7152</v>
       </c>
       <c r="I12" t="n">
         <v>-0.15</v>
       </c>
-      <c r="J12" t="s">
-        <v>125</v>
+      <c r="J12" t="n">
+        <v>5921</v>
       </c>
       <c r="K12" t="n">
         <v>0.49</v>
       </c>
-      <c r="L12" t="s">
-        <v>126</v>
+      <c r="L12" t="n">
+        <v>620</v>
       </c>
       <c r="M12" t="n">
         <v>0.05</v>
       </c>
-      <c r="N12" t="s">
-        <v>127</v>
+      <c r="N12" t="n">
+        <v>-2399</v>
       </c>
       <c r="O12" t="n">
         <v>-0.19</v>
       </c>
-      <c r="P12" t="s">
-        <v>128</v>
+      <c r="P12" t="n">
+        <v>1239</v>
       </c>
       <c r="Q12" t="n">
         <v>0.02</v>
       </c>
-      <c r="R12" t="s">
-        <v>129</v>
+      <c r="R12" t="n">
+        <v>272</v>
       </c>
       <c r="S12" t="n">
         <v>0.02</v>
       </c>
-      <c r="T12" t="s">
-        <v>130</v>
+      <c r="T12" t="n">
+        <v>-186</v>
       </c>
       <c r="U12" t="n">
         <v>-0.01</v>
       </c>
-      <c r="V12" t="s">
-        <v>131</v>
+      <c r="V12" t="n">
+        <v>1590</v>
       </c>
       <c r="W12" t="n">
         <v>0.14</v>
       </c>
-      <c r="X12" t="s">
-        <v>132</v>
+      <c r="X12" t="n">
+        <v>1426</v>
       </c>
       <c r="Y12" t="n">
         <v>0.03</v>
       </c>
-      <c r="Z12" t="s">
-        <v>133</v>
+      <c r="Z12" t="n">
+        <v>1157</v>
       </c>
       <c r="AA12" t="n">
         <v>0.12</v>
       </c>
-      <c r="AB12" t="s">
-        <v>134</v>
+      <c r="AB12" t="n">
+        <v>2469</v>
       </c>
       <c r="AC12" t="n">
         <v>0.22</v>
       </c>
-      <c r="AD12" t="s">
-        <v>135</v>
+      <c r="AD12" t="n">
+        <v>-302</v>
       </c>
       <c r="AE12" t="n">
         <v>-0.03</v>
       </c>
-      <c r="AF12" t="s">
-        <v>136</v>
+      <c r="AF12" t="n">
+        <v>-56</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -2755,85 +1531,85 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" t="s">
-        <v>138</v>
+        <v>43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.17</v>
       </c>
       <c r="C13" t="s"/>
-      <c r="D13" t="s">
-        <v>139</v>
+      <c r="D13" t="n">
+        <v>0.11</v>
       </c>
       <c r="E13" t="s"/>
-      <c r="F13" t="s">
-        <v>140</v>
+      <c r="F13" t="n">
+        <v>0.14</v>
       </c>
       <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>141</v>
+      <c r="H13" t="n">
+        <v>0.44</v>
       </c>
       <c r="I13" t="s"/>
-      <c r="J13" t="s">
-        <v>142</v>
+      <c r="J13" t="n">
+        <v>0.18</v>
       </c>
       <c r="K13" t="s"/>
-      <c r="L13" t="s">
-        <v>143</v>
+      <c r="L13" t="n">
+        <v>0.37</v>
       </c>
       <c r="M13" t="s"/>
-      <c r="N13" t="s">
-        <v>144</v>
+      <c r="N13" t="n">
+        <v>0.2</v>
       </c>
       <c r="O13" t="s"/>
-      <c r="P13" t="s">
-        <v>145</v>
+      <c r="P13" t="n">
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s">
-        <v>146</v>
+      <c r="R13" t="n">
+        <v>0.39</v>
       </c>
       <c r="S13" t="s"/>
-      <c r="T13" t="s">
-        <v>146</v>
+      <c r="T13" t="n">
+        <v>0.39</v>
       </c>
       <c r="U13" t="s"/>
-      <c r="V13" t="s">
-        <v>147</v>
+      <c r="V13" t="n">
+        <v>0.23</v>
       </c>
       <c r="W13" t="s"/>
-      <c r="X13" t="s">
-        <v>148</v>
+      <c r="X13" t="n">
+        <v>1.16</v>
       </c>
       <c r="Y13" t="s"/>
-      <c r="Z13" t="s">
-        <v>149</v>
+      <c r="Z13" t="n">
+        <v>0.26</v>
       </c>
       <c r="AA13" t="s"/>
-      <c r="AB13" t="s">
-        <v>147</v>
+      <c r="AB13" t="n">
+        <v>0.23</v>
       </c>
       <c r="AC13" t="s"/>
-      <c r="AD13" t="s">
-        <v>144</v>
+      <c r="AD13" t="n">
+        <v>0.2</v>
       </c>
       <c r="AE13" t="s"/>
-      <c r="AF13" t="s">
-        <v>150</v>
+      <c r="AF13" t="n">
+        <v>0.78</v>
       </c>
       <c r="AG13" t="s"/>
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
+      <c r="D14" t="n">
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -2842,14 +1618,14 @@
       <c r="G14" t="s"/>
       <c r="H14" t="s"/>
       <c r="I14" t="s"/>
-      <c r="J14" t="s">
-        <v>33</v>
+      <c r="J14" t="n">
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
-      <c r="L14" t="s">
-        <v>33</v>
+      <c r="L14" t="n">
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2877,100 +1653,100 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" t="s">
-        <v>153</v>
+        <v>45</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20742</v>
       </c>
       <c r="C15" t="n">
         <v>1.72</v>
       </c>
-      <c r="D15" t="s">
-        <v>154</v>
+      <c r="D15" t="n">
+        <v>10901</v>
       </c>
       <c r="E15" t="n">
         <v>0.97</v>
       </c>
-      <c r="F15" t="s">
-        <v>155</v>
+      <c r="F15" t="n">
+        <v>14486</v>
       </c>
       <c r="G15" t="n">
         <v>1.21</v>
       </c>
-      <c r="H15" t="s">
-        <v>156</v>
+      <c r="H15" t="n">
+        <v>48891</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="s">
-        <v>157</v>
+      <c r="J15" t="n">
+        <v>17869</v>
       </c>
       <c r="K15" t="n">
         <v>1.47</v>
       </c>
-      <c r="L15" t="s">
-        <v>158</v>
+      <c r="L15" t="n">
+        <v>26172</v>
       </c>
       <c r="M15" t="n">
         <v>2.05</v>
       </c>
-      <c r="N15" t="s">
-        <v>159</v>
+      <c r="N15" t="n">
+        <v>19165</v>
       </c>
       <c r="O15" t="n">
         <v>1.55</v>
       </c>
-      <c r="P15" t="s">
-        <v>160</v>
+      <c r="P15" t="n">
+        <v>70993</v>
       </c>
       <c r="Q15" t="n">
         <v>1.39</v>
       </c>
-      <c r="R15" t="s">
-        <v>161</v>
+      <c r="R15" t="n">
+        <v>31941</v>
       </c>
       <c r="S15" t="n">
         <v>2.47</v>
       </c>
-      <c r="T15" t="s">
-        <v>162</v>
+      <c r="T15" t="n">
+        <v>53379</v>
       </c>
       <c r="U15" t="n">
         <v>3.97</v>
       </c>
-      <c r="V15" t="s">
-        <v>163</v>
+      <c r="V15" t="n">
+        <v>17122</v>
       </c>
       <c r="W15" t="n">
         <v>1.51</v>
       </c>
-      <c r="X15" t="s">
-        <v>164</v>
+      <c r="X15" t="n">
+        <v>112889</v>
       </c>
       <c r="Y15" t="n">
         <v>2.25</v>
       </c>
-      <c r="Z15" t="s">
-        <v>165</v>
+      <c r="Z15" t="n">
+        <v>21416</v>
       </c>
       <c r="AA15" t="n">
         <v>2.15</v>
       </c>
-      <c r="AB15" t="s">
-        <v>166</v>
+      <c r="AB15" t="n">
+        <v>29912</v>
       </c>
       <c r="AC15" t="n">
         <v>2.7</v>
       </c>
-      <c r="AD15" t="s">
-        <v>167</v>
+      <c r="AD15" t="n">
+        <v>17456</v>
       </c>
       <c r="AE15" t="n">
         <v>1.65</v>
       </c>
-      <c r="AF15" t="s">
-        <v>168</v>
+      <c r="AF15" t="n">
+        <v>77128</v>
       </c>
       <c r="AG15" t="n">
         <v>1.81</v>
@@ -2978,16 +1754,16 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>33</v>
+      <c r="D16" t="n">
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -2996,14 +1772,14 @@
       <c r="G16" t="s"/>
       <c r="H16" t="s"/>
       <c r="I16" t="s"/>
-      <c r="J16" t="s">
-        <v>33</v>
+      <c r="J16" t="n">
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="s">
-        <v>33</v>
+      <c r="L16" t="n">
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -3031,7 +1807,7 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s"/>
       <c r="C17" t="s"/>
@@ -3049,8 +1825,8 @@
       <c r="O17" t="s"/>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s">
-        <v>33</v>
+      <c r="R17" t="n">
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -3072,100 +1848,100 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" t="s">
-        <v>172</v>
+        <v>48</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19483</v>
       </c>
       <c r="C18" t="n">
         <v>1.62</v>
       </c>
-      <c r="D18" t="s">
-        <v>173</v>
+      <c r="D18" t="n">
+        <v>33250</v>
       </c>
       <c r="E18" t="n">
         <v>2.96</v>
       </c>
-      <c r="F18" t="s">
-        <v>174</v>
+      <c r="F18" t="n">
+        <v>33140</v>
       </c>
       <c r="G18" t="n">
         <v>2.77</v>
       </c>
-      <c r="H18" t="s">
-        <v>175</v>
+      <c r="H18" t="n">
+        <v>122108</v>
       </c>
       <c r="I18" t="n">
         <v>2.51</v>
       </c>
-      <c r="J18" t="s">
-        <v>176</v>
+      <c r="J18" t="n">
+        <v>31110</v>
       </c>
       <c r="K18" t="n">
         <v>2.55</v>
       </c>
-      <c r="L18" t="s">
-        <v>177</v>
+      <c r="L18" t="n">
+        <v>33370</v>
       </c>
       <c r="M18" t="n">
         <v>2.61</v>
       </c>
-      <c r="N18" t="s">
-        <v>178</v>
+      <c r="N18" t="n">
+        <v>31355</v>
       </c>
       <c r="O18" t="n">
         <v>2.54</v>
       </c>
-      <c r="P18" t="s">
-        <v>179</v>
+      <c r="P18" t="n">
+        <v>139773</v>
       </c>
       <c r="Q18" t="n">
         <v>2.74</v>
       </c>
-      <c r="R18" t="s">
-        <v>180</v>
+      <c r="R18" t="n">
+        <v>29937</v>
       </c>
       <c r="S18" t="n">
         <v>2.32</v>
       </c>
-      <c r="T18" t="s">
-        <v>181</v>
+      <c r="T18" t="n">
+        <v>30563</v>
       </c>
       <c r="U18" t="n">
         <v>2.27</v>
       </c>
-      <c r="V18" t="s">
-        <v>182</v>
+      <c r="V18" t="n">
+        <v>28008</v>
       </c>
       <c r="W18" t="n">
         <v>2.47</v>
       </c>
-      <c r="X18" t="s">
-        <v>183</v>
+      <c r="X18" t="n">
+        <v>135878</v>
       </c>
       <c r="Y18" t="n">
         <v>2.71</v>
       </c>
-      <c r="Z18" t="s">
-        <v>184</v>
+      <c r="Z18" t="n">
+        <v>26009</v>
       </c>
       <c r="AA18" t="n">
         <v>2.61</v>
       </c>
-      <c r="AB18" t="s">
-        <v>185</v>
+      <c r="AB18" t="n">
+        <v>27705</v>
       </c>
       <c r="AC18" t="n">
         <v>2.5</v>
       </c>
-      <c r="AD18" t="s">
-        <v>186</v>
+      <c r="AD18" t="n">
+        <v>26355</v>
       </c>
       <c r="AE18" t="n">
         <v>2.5</v>
       </c>
-      <c r="AF18" t="s">
-        <v>187</v>
+      <c r="AF18" t="n">
+        <v>95299</v>
       </c>
       <c r="AG18" t="n">
         <v>2.24</v>
@@ -3173,16 +1949,16 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>33</v>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -3191,14 +1967,14 @@
       <c r="G19" t="s"/>
       <c r="H19" t="s"/>
       <c r="I19" t="s"/>
-      <c r="J19" t="s">
-        <v>33</v>
+      <c r="J19" t="n">
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
-        <v>33</v>
+      <c r="L19" t="n">
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -3226,100 +2002,100 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" t="s">
-        <v>190</v>
+        <v>50</v>
+      </c>
+      <c r="B20" t="n">
+        <v>63869</v>
       </c>
       <c r="C20" t="n">
         <v>5.31</v>
       </c>
-      <c r="D20" t="s">
-        <v>191</v>
+      <c r="D20" t="n">
+        <v>42224</v>
       </c>
       <c r="E20" t="n">
         <v>3.76</v>
       </c>
-      <c r="F20" t="s">
-        <v>192</v>
+      <c r="F20" t="n">
+        <v>53016</v>
       </c>
       <c r="G20" t="n">
         <v>4.43</v>
       </c>
-      <c r="H20" t="s">
-        <v>193</v>
+      <c r="H20" t="n">
+        <v>162817</v>
       </c>
       <c r="I20" t="n">
         <v>3.34</v>
       </c>
-      <c r="J20" t="s">
-        <v>194</v>
+      <c r="J20" t="n">
+        <v>68510</v>
       </c>
       <c r="K20" t="n">
         <v>5.62</v>
       </c>
-      <c r="L20" t="s">
-        <v>195</v>
+      <c r="L20" t="n">
+        <v>150408</v>
       </c>
       <c r="M20" t="n">
         <v>11.79</v>
       </c>
-      <c r="N20" t="s">
-        <v>196</v>
+      <c r="N20" t="n">
+        <v>77193</v>
       </c>
       <c r="O20" t="n">
         <v>6.24</v>
       </c>
-      <c r="P20" t="s">
-        <v>197</v>
+      <c r="P20" t="n">
+        <v>367067</v>
       </c>
       <c r="Q20" t="n">
         <v>7.2</v>
       </c>
-      <c r="R20" t="s">
-        <v>198</v>
+      <c r="R20" t="n">
+        <v>155005</v>
       </c>
       <c r="S20" t="n">
         <v>12.01</v>
       </c>
-      <c r="T20" t="s">
-        <v>199</v>
+      <c r="T20" t="n">
+        <v>153855</v>
       </c>
       <c r="U20" t="n">
         <v>11.43</v>
       </c>
-      <c r="V20" t="s">
-        <v>200</v>
+      <c r="V20" t="n">
+        <v>90634</v>
       </c>
       <c r="W20" t="n">
         <v>8</v>
       </c>
-      <c r="X20" t="s">
-        <v>201</v>
+      <c r="X20" t="n">
+        <v>462763</v>
       </c>
       <c r="Y20" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="Z20" t="s">
-        <v>202</v>
+      <c r="Z20" t="n">
+        <v>104371</v>
       </c>
       <c r="AA20" t="n">
         <v>10.48</v>
       </c>
-      <c r="AB20" t="s">
-        <v>203</v>
+      <c r="AB20" t="n">
+        <v>90393</v>
       </c>
       <c r="AC20" t="n">
         <v>8.15</v>
       </c>
-      <c r="AD20" t="s">
-        <v>204</v>
+      <c r="AD20" t="n">
+        <v>78783</v>
       </c>
       <c r="AE20" t="n">
         <v>7.46</v>
       </c>
-      <c r="AF20" t="s">
-        <v>205</v>
+      <c r="AF20" t="n">
+        <v>315077</v>
       </c>
       <c r="AG20" t="n">
         <v>7.41</v>
@@ -3327,100 +2103,100 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" t="s">
-        <v>207</v>
+        <v>51</v>
+      </c>
+      <c r="B21" t="n">
+        <v>72447</v>
       </c>
       <c r="C21" t="n">
         <v>6.02</v>
       </c>
-      <c r="D21" t="s">
-        <v>208</v>
+      <c r="D21" t="n">
+        <v>23252</v>
       </c>
       <c r="E21" t="n">
         <v>2.07</v>
       </c>
-      <c r="F21" t="s">
-        <v>209</v>
+      <c r="F21" t="n">
+        <v>53294</v>
       </c>
       <c r="G21" t="n">
         <v>4.46</v>
       </c>
-      <c r="H21" t="s">
-        <v>210</v>
+      <c r="H21" t="n">
+        <v>152677</v>
       </c>
       <c r="I21" t="n">
         <v>3.14</v>
       </c>
-      <c r="J21" t="s">
-        <v>211</v>
+      <c r="J21" t="n">
+        <v>80641</v>
       </c>
       <c r="K21" t="n">
         <v>6.61</v>
       </c>
-      <c r="L21" t="s">
-        <v>212</v>
+      <c r="L21" t="n">
+        <v>142086</v>
       </c>
       <c r="M21" t="n">
         <v>11.13</v>
       </c>
-      <c r="N21" t="s">
-        <v>213</v>
+      <c r="N21" t="n">
+        <v>64252</v>
       </c>
       <c r="O21" t="n">
         <v>5.2</v>
       </c>
-      <c r="P21" t="s">
-        <v>214</v>
+      <c r="P21" t="n">
+        <v>378842</v>
       </c>
       <c r="Q21" t="n">
         <v>7.43</v>
       </c>
-      <c r="R21" t="s">
-        <v>215</v>
+      <c r="R21" t="n">
+        <v>156630</v>
       </c>
       <c r="S21" t="n">
         <v>12.13</v>
       </c>
-      <c r="T21" t="s">
-        <v>216</v>
+      <c r="T21" t="n">
+        <v>141419</v>
       </c>
       <c r="U21" t="n">
         <v>10.51</v>
       </c>
-      <c r="V21" t="s">
-        <v>217</v>
+      <c r="V21" t="n">
+        <v>93778</v>
       </c>
       <c r="W21" t="n">
         <v>8.279999999999999</v>
       </c>
-      <c r="X21" t="s">
-        <v>218</v>
+      <c r="X21" t="n">
+        <v>462877</v>
       </c>
       <c r="Y21" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="Z21" t="s">
-        <v>219</v>
+      <c r="Z21" t="n">
+        <v>99716</v>
       </c>
       <c r="AA21" t="n">
         <v>10.02</v>
       </c>
-      <c r="AB21" t="s">
-        <v>220</v>
+      <c r="AB21" t="n">
+        <v>97443</v>
       </c>
       <c r="AC21" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="AD21" t="s">
-        <v>221</v>
+      <c r="AD21" t="n">
+        <v>76539</v>
       </c>
       <c r="AE21" t="n">
         <v>7.25</v>
       </c>
-      <c r="AF21" t="s">
-        <v>222</v>
+      <c r="AF21" t="n">
+        <v>303606</v>
       </c>
       <c r="AG21" t="n">
         <v>7.14</v>
@@ -3428,100 +2204,100 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22" t="s">
-        <v>224</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="n">
+        <v>69554</v>
       </c>
       <c r="C22" t="n">
         <v>5.78</v>
       </c>
-      <c r="D22" t="s">
-        <v>225</v>
+      <c r="D22" t="n">
+        <v>46151</v>
       </c>
       <c r="E22" t="n">
         <v>4.11</v>
       </c>
-      <c r="F22" t="s">
-        <v>226</v>
+      <c r="F22" t="n">
+        <v>55302</v>
       </c>
       <c r="G22" t="n">
         <v>4.62</v>
       </c>
-      <c r="H22" t="s">
-        <v>227</v>
+      <c r="H22" t="n">
+        <v>179445</v>
       </c>
       <c r="I22" t="n">
         <v>3.69</v>
       </c>
-      <c r="J22" t="s">
-        <v>228</v>
+      <c r="J22" t="n">
+        <v>73015</v>
       </c>
       <c r="K22" t="n">
         <v>5.99</v>
       </c>
-      <c r="L22" t="s">
-        <v>229</v>
+      <c r="L22" t="n">
+        <v>151560</v>
       </c>
       <c r="M22" t="n">
         <v>11.88</v>
       </c>
-      <c r="N22" t="s">
-        <v>230</v>
+      <c r="N22" t="n">
+        <v>81378</v>
       </c>
       <c r="O22" t="n">
         <v>6.58</v>
       </c>
-      <c r="P22" t="s">
-        <v>231</v>
+      <c r="P22" t="n">
+        <v>379540</v>
       </c>
       <c r="Q22" t="n">
         <v>7.44</v>
       </c>
-      <c r="R22" t="s">
-        <v>232</v>
+      <c r="R22" t="n">
+        <v>156298</v>
       </c>
       <c r="S22" t="n">
         <v>12.11</v>
       </c>
-      <c r="T22" t="s">
-        <v>233</v>
+      <c r="T22" t="n">
+        <v>159250</v>
       </c>
       <c r="U22" t="n">
         <v>11.83</v>
       </c>
-      <c r="V22" t="s">
-        <v>234</v>
+      <c r="V22" t="n">
+        <v>91780</v>
       </c>
       <c r="W22" t="n">
         <v>8.1</v>
       </c>
-      <c r="X22" t="s">
-        <v>235</v>
+      <c r="X22" t="n">
+        <v>470161</v>
       </c>
       <c r="Y22" t="n">
         <v>9.359999999999999</v>
       </c>
-      <c r="Z22" t="s">
-        <v>236</v>
+      <c r="Z22" t="n">
+        <v>103392</v>
       </c>
       <c r="AA22" t="n">
         <v>10.38</v>
       </c>
-      <c r="AB22" t="s">
-        <v>237</v>
+      <c r="AB22" t="n">
+        <v>91452</v>
       </c>
       <c r="AC22" t="n">
         <v>8.24</v>
       </c>
-      <c r="AD22" t="s">
-        <v>238</v>
+      <c r="AD22" t="n">
+        <v>79013</v>
       </c>
       <c r="AE22" t="n">
         <v>7.49</v>
       </c>
-      <c r="AF22" t="s">
-        <v>239</v>
+      <c r="AF22" t="n">
+        <v>315334</v>
       </c>
       <c r="AG22" t="n">
         <v>7.42</v>
@@ -3529,100 +2305,100 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B23" t="s">
-        <v>241</v>
+        <v>53</v>
+      </c>
+      <c r="B23" t="n">
+        <v>79103</v>
       </c>
       <c r="C23" t="n">
         <v>6.57</v>
       </c>
-      <c r="D23" t="s">
-        <v>242</v>
+      <c r="D23" t="n">
+        <v>27300</v>
       </c>
       <c r="E23" t="n">
         <v>2.43</v>
       </c>
-      <c r="F23" t="s">
-        <v>243</v>
+      <c r="F23" t="n">
+        <v>55301</v>
       </c>
       <c r="G23" t="n">
         <v>4.62</v>
       </c>
-      <c r="H23" t="s">
-        <v>244</v>
+      <c r="H23" t="n">
+        <v>171043</v>
       </c>
       <c r="I23" t="n">
         <v>3.51</v>
       </c>
-      <c r="J23" t="s">
-        <v>245</v>
+      <c r="J23" t="n">
+        <v>82881</v>
       </c>
       <c r="K23" t="n">
         <v>6.8</v>
       </c>
-      <c r="L23" t="s">
-        <v>246</v>
+      <c r="L23" t="n">
+        <v>142920</v>
       </c>
       <c r="M23" t="n">
         <v>11.2</v>
       </c>
-      <c r="N23" t="s">
-        <v>247</v>
+      <c r="N23" t="n">
+        <v>68982</v>
       </c>
       <c r="O23" t="n">
         <v>5.58</v>
       </c>
-      <c r="P23" t="s">
-        <v>248</v>
+      <c r="P23" t="n">
+        <v>390167</v>
       </c>
       <c r="Q23" t="n">
         <v>7.65</v>
       </c>
-      <c r="R23" t="s">
-        <v>249</v>
+      <c r="R23" t="n">
+        <v>157746</v>
       </c>
       <c r="S23" t="n">
         <v>12.22</v>
       </c>
-      <c r="T23" t="s">
-        <v>250</v>
+      <c r="T23" t="n">
+        <v>146692</v>
       </c>
       <c r="U23" t="n">
         <v>10.9</v>
       </c>
-      <c r="V23" t="s">
-        <v>251</v>
+      <c r="V23" t="n">
+        <v>94954</v>
       </c>
       <c r="W23" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="X23" t="s">
-        <v>252</v>
+      <c r="X23" t="n">
+        <v>470063</v>
       </c>
       <c r="Y23" t="n">
         <v>9.359999999999999</v>
       </c>
-      <c r="Z23" t="s">
-        <v>253</v>
+      <c r="Z23" t="n">
+        <v>98737</v>
       </c>
       <c r="AA23" t="n">
         <v>9.92</v>
       </c>
-      <c r="AB23" t="s">
-        <v>254</v>
+      <c r="AB23" t="n">
+        <v>98505</v>
       </c>
       <c r="AC23" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="AD23" t="s">
-        <v>255</v>
+      <c r="AD23" t="n">
+        <v>76773</v>
       </c>
       <c r="AE23" t="n">
         <v>7.27</v>
       </c>
-      <c r="AF23" t="s">
-        <v>256</v>
+      <c r="AF23" t="n">
+        <v>303872</v>
       </c>
       <c r="AG23" t="n">
         <v>7.15</v>
@@ -3630,100 +2406,100 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B24" t="s">
-        <v>258</v>
+        <v>54</v>
+      </c>
+      <c r="B24" t="n">
+        <v>98223</v>
       </c>
       <c r="C24" t="n">
         <v>8.16</v>
       </c>
-      <c r="D24" t="s">
-        <v>259</v>
+      <c r="D24" t="n">
+        <v>71337</v>
       </c>
       <c r="E24" t="n">
         <v>6.36</v>
       </c>
-      <c r="F24" t="s">
-        <v>260</v>
+      <c r="F24" t="n">
+        <v>83940</v>
       </c>
       <c r="G24" t="n">
         <v>7.02</v>
       </c>
-      <c r="H24" t="s">
-        <v>261</v>
+      <c r="H24" t="n">
+        <v>271131</v>
       </c>
       <c r="I24" t="n">
         <v>5.57</v>
       </c>
-      <c r="J24" t="s">
-        <v>262</v>
+      <c r="J24" t="n">
+        <v>102969</v>
       </c>
       <c r="K24" t="n">
         <v>8.44</v>
       </c>
-      <c r="L24" t="s">
-        <v>263</v>
+      <c r="L24" t="n">
+        <v>132606</v>
       </c>
       <c r="M24" t="n">
         <v>10.39</v>
       </c>
-      <c r="N24" t="s">
-        <v>264</v>
+      <c r="N24" t="n">
+        <v>108015</v>
       </c>
       <c r="O24" t="n">
         <v>8.73</v>
       </c>
-      <c r="P24" t="s">
-        <v>265</v>
+      <c r="P24" t="n">
+        <v>440566</v>
       </c>
       <c r="Q24" t="n">
         <v>8.640000000000001</v>
       </c>
-      <c r="R24" t="s">
-        <v>266</v>
+      <c r="R24" t="n">
+        <v>198438</v>
       </c>
       <c r="S24" t="n">
         <v>15.37</v>
       </c>
-      <c r="T24" t="s">
-        <v>267</v>
+      <c r="T24" t="n">
+        <v>218071</v>
       </c>
       <c r="U24" t="n">
         <v>16.2</v>
       </c>
-      <c r="V24" t="s">
-        <v>268</v>
+      <c r="V24" t="n">
+        <v>113645</v>
       </c>
       <c r="W24" t="n">
         <v>10.03</v>
       </c>
-      <c r="X24" t="s">
-        <v>269</v>
+      <c r="X24" t="n">
+        <v>624343</v>
       </c>
       <c r="Y24" t="n">
         <v>12.43</v>
       </c>
-      <c r="Z24" t="s">
-        <v>270</v>
+      <c r="Z24" t="n">
+        <v>133019</v>
       </c>
       <c r="AA24" t="n">
         <v>13.36</v>
       </c>
-      <c r="AB24" t="s">
-        <v>271</v>
+      <c r="AB24" t="n">
+        <v>133165</v>
       </c>
       <c r="AC24" t="n">
         <v>12</v>
       </c>
-      <c r="AD24" t="s">
-        <v>272</v>
+      <c r="AD24" t="n">
+        <v>98283</v>
       </c>
       <c r="AE24" t="n">
         <v>9.31</v>
       </c>
-      <c r="AF24" t="s">
-        <v>273</v>
+      <c r="AF24" t="n">
+        <v>426326</v>
       </c>
       <c r="AG24" t="n">
         <v>10.03</v>
@@ -3731,100 +2507,100 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B25" t="s">
-        <v>275</v>
+        <v>55</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-13612</v>
       </c>
       <c r="C25" t="n">
         <v>-1.13</v>
       </c>
-      <c r="D25" t="s">
-        <v>276</v>
+      <c r="D25" t="n">
+        <v>-18212</v>
       </c>
       <c r="E25" t="n">
         <v>-1.62</v>
       </c>
-      <c r="F25" t="s">
-        <v>277</v>
+      <c r="F25" t="n">
+        <v>-16438</v>
       </c>
       <c r="G25" t="n">
         <v>-1.37</v>
       </c>
-      <c r="H25" t="s">
-        <v>278</v>
+      <c r="H25" t="n">
+        <v>-59423</v>
       </c>
       <c r="I25" t="n">
         <v>-1.22</v>
       </c>
-      <c r="J25" t="s">
-        <v>279</v>
+      <c r="J25" t="n">
+        <v>-16590</v>
       </c>
       <c r="K25" t="n">
         <v>-1.36</v>
       </c>
-      <c r="L25" t="s">
-        <v>280</v>
+      <c r="L25" t="n">
+        <v>43974</v>
       </c>
       <c r="M25" t="n">
         <v>3.45</v>
       </c>
-      <c r="N25" t="s">
-        <v>281</v>
+      <c r="N25" t="n">
+        <v>-11657</v>
       </c>
       <c r="O25" t="n">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="P25" t="s">
-        <v>282</v>
+      <c r="P25" t="n">
+        <v>-2506</v>
       </c>
       <c r="Q25" t="n">
         <v>-0.05</v>
       </c>
-      <c r="R25" t="s">
-        <v>283</v>
+      <c r="R25" t="n">
+        <v>-11492</v>
       </c>
       <c r="S25" t="n">
         <v>-0.89</v>
       </c>
-      <c r="T25" t="s">
-        <v>284</v>
+      <c r="T25" t="n">
+        <v>-10837</v>
       </c>
       <c r="U25" t="n">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="V25" t="s">
-        <v>285</v>
+      <c r="V25" t="n">
+        <v>-2463</v>
       </c>
       <c r="W25" t="n">
         <v>-0.22</v>
       </c>
-      <c r="X25" t="s">
-        <v>286</v>
+      <c r="X25" t="n">
+        <v>-8019</v>
       </c>
       <c r="Y25" t="n">
         <v>-0.16</v>
       </c>
-      <c r="Z25" t="s">
-        <v>287</v>
+      <c r="Z25" t="n">
+        <v>-6225</v>
       </c>
       <c r="AA25" t="n">
         <v>-0.63</v>
       </c>
-      <c r="AB25" t="s">
-        <v>288</v>
+      <c r="AB25" t="n">
+        <v>-5085</v>
       </c>
       <c r="AC25" t="n">
         <v>-0.46</v>
       </c>
-      <c r="AD25" t="s">
-        <v>289</v>
+      <c r="AD25" t="n">
+        <v>-1890</v>
       </c>
       <c r="AE25" t="n">
         <v>-0.18</v>
       </c>
-      <c r="AF25" t="s">
-        <v>290</v>
+      <c r="AF25" t="n">
+        <v>-24996</v>
       </c>
       <c r="AG25" t="n">
         <v>-0.59</v>
@@ -3832,100 +2608,100 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B26" t="s">
-        <v>292</v>
+        <v>56</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1051860</v>
       </c>
       <c r="C26" t="n">
         <v>87.39</v>
       </c>
-      <c r="D26" t="s">
-        <v>293</v>
+      <c r="D26" t="n">
+        <v>981797</v>
       </c>
       <c r="E26" t="n">
         <v>87.52</v>
       </c>
-      <c r="F26" t="s">
-        <v>294</v>
+      <c r="F26" t="n">
+        <v>1040150</v>
       </c>
       <c r="G26" t="n">
         <v>86.98</v>
       </c>
-      <c r="H26" t="s">
-        <v>295</v>
+      <c r="H26" t="n">
+        <v>4327188</v>
       </c>
       <c r="I26" t="n">
         <v>88.86</v>
       </c>
-      <c r="J26" t="s">
-        <v>296</v>
+      <c r="J26" t="n">
+        <v>1052909</v>
       </c>
       <c r="K26" t="n">
         <v>86.34999999999999</v>
       </c>
-      <c r="L26" t="s">
-        <v>297</v>
+      <c r="L26" t="n">
+        <v>1077310</v>
       </c>
       <c r="M26" t="n">
         <v>84.41</v>
       </c>
-      <c r="N26" t="s">
-        <v>298</v>
+      <c r="N26" t="n">
+        <v>1061583</v>
       </c>
       <c r="O26" t="n">
         <v>85.84</v>
       </c>
-      <c r="P26" t="s">
-        <v>299</v>
+      <c r="P26" t="n">
+        <v>4360174</v>
       </c>
       <c r="Q26" t="n">
         <v>85.51000000000001</v>
       </c>
-      <c r="R26" t="s">
-        <v>300</v>
+      <c r="R26" t="n">
+        <v>1021426</v>
       </c>
       <c r="S26" t="n">
         <v>79.12</v>
       </c>
-      <c r="T26" t="s">
-        <v>301</v>
+      <c r="T26" t="n">
+        <v>1041486</v>
       </c>
       <c r="U26" t="n">
         <v>77.37</v>
       </c>
-      <c r="V26" t="s">
-        <v>302</v>
+      <c r="V26" t="n">
+        <v>957589</v>
       </c>
       <c r="W26" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="X26" t="s">
-        <v>303</v>
+      <c r="X26" t="n">
+        <v>4115087</v>
       </c>
       <c r="Y26" t="n">
         <v>81.95</v>
       </c>
-      <c r="Z26" t="s">
-        <v>304</v>
+      <c r="Z26" t="n">
+        <v>804827</v>
       </c>
       <c r="AA26" t="n">
         <v>80.84</v>
       </c>
-      <c r="AB26" t="s">
-        <v>305</v>
+      <c r="AB26" t="n">
+        <v>915660</v>
       </c>
       <c r="AC26" t="n">
         <v>82.54000000000001</v>
       </c>
-      <c r="AD26" t="s">
-        <v>306</v>
+      <c r="AD26" t="n">
+        <v>892483</v>
       </c>
       <c r="AE26" t="n">
         <v>84.55</v>
       </c>
-      <c r="AF26" t="s">
-        <v>307</v>
+      <c r="AF26" t="n">
+        <v>3588568</v>
       </c>
       <c r="AG26" t="n">
         <v>84.42</v>
@@ -3933,100 +2709,100 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B27" t="s">
-        <v>309</v>
+        <v>57</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1203671</v>
       </c>
       <c r="C27" t="n">
         <v>100</v>
       </c>
-      <c r="D27" t="s">
-        <v>310</v>
+      <c r="D27" t="n">
+        <v>1121734</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
-      <c r="F27" t="s">
-        <v>311</v>
+      <c r="F27" t="n">
+        <v>1195803</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
       </c>
-      <c r="H27" t="s">
-        <v>312</v>
+      <c r="H27" t="n">
+        <v>4869590</v>
       </c>
       <c r="I27" t="n">
         <v>100</v>
       </c>
-      <c r="J27" t="s">
-        <v>313</v>
+      <c r="J27" t="n">
+        <v>1219347</v>
       </c>
       <c r="K27" t="n">
         <v>100</v>
       </c>
-      <c r="L27" t="s">
-        <v>314</v>
+      <c r="L27" t="n">
+        <v>1276260</v>
       </c>
       <c r="M27" t="n">
         <v>100</v>
       </c>
-      <c r="N27" t="s">
-        <v>315</v>
+      <c r="N27" t="n">
+        <v>1236683</v>
       </c>
       <c r="O27" t="n">
         <v>100</v>
       </c>
-      <c r="P27" t="s">
-        <v>316</v>
+      <c r="P27" t="n">
+        <v>5099198</v>
       </c>
       <c r="Q27" t="n">
         <v>100</v>
       </c>
-      <c r="R27" t="s">
-        <v>317</v>
+      <c r="R27" t="n">
+        <v>1290902</v>
       </c>
       <c r="S27" t="n">
         <v>100</v>
       </c>
-      <c r="T27" t="s">
-        <v>318</v>
+      <c r="T27" t="n">
+        <v>1346059</v>
       </c>
       <c r="U27" t="n">
         <v>100</v>
       </c>
-      <c r="V27" t="s">
-        <v>319</v>
+      <c r="V27" t="n">
+        <v>1133105</v>
       </c>
       <c r="W27" t="n">
         <v>100</v>
       </c>
-      <c r="X27" t="s">
-        <v>320</v>
+      <c r="X27" t="n">
+        <v>5021353</v>
       </c>
       <c r="Y27" t="n">
         <v>100</v>
       </c>
-      <c r="Z27" t="s">
-        <v>321</v>
+      <c r="Z27" t="n">
+        <v>995636</v>
       </c>
       <c r="AA27" t="n">
         <v>100</v>
       </c>
-      <c r="AB27" t="s">
-        <v>322</v>
+      <c r="AB27" t="n">
+        <v>1109333</v>
       </c>
       <c r="AC27" t="n">
         <v>100</v>
       </c>
-      <c r="AD27" t="s">
-        <v>323</v>
+      <c r="AD27" t="n">
+        <v>1055508</v>
       </c>
       <c r="AE27" t="n">
         <v>100</v>
       </c>
-      <c r="AF27" t="s">
-        <v>324</v>
+      <c r="AF27" t="n">
+        <v>4251061</v>
       </c>
       <c r="AG27" t="n">
         <v>100</v>
@@ -4034,100 +2810,100 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B28" t="s">
-        <v>326</v>
+        <v>58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>151811</v>
       </c>
       <c r="C28" t="n">
         <v>12.61</v>
       </c>
-      <c r="D28" t="s">
-        <v>327</v>
+      <c r="D28" t="n">
+        <v>139937</v>
       </c>
       <c r="E28" t="n">
         <v>12.48</v>
       </c>
-      <c r="F28" t="s">
-        <v>328</v>
+      <c r="F28" t="n">
+        <v>155653</v>
       </c>
       <c r="G28" t="n">
         <v>13.02</v>
       </c>
-      <c r="H28" t="s">
-        <v>329</v>
+      <c r="H28" t="n">
+        <v>542402</v>
       </c>
       <c r="I28" t="n">
         <v>11.14</v>
       </c>
-      <c r="J28" t="s">
-        <v>330</v>
+      <c r="J28" t="n">
+        <v>166438</v>
       </c>
       <c r="K28" t="n">
         <v>13.65</v>
       </c>
-      <c r="L28" t="s">
-        <v>331</v>
+      <c r="L28" t="n">
+        <v>198950</v>
       </c>
       <c r="M28" t="n">
         <v>15.59</v>
       </c>
-      <c r="N28" t="s">
-        <v>332</v>
+      <c r="N28" t="n">
+        <v>175100</v>
       </c>
       <c r="O28" t="n">
         <v>14.16</v>
       </c>
-      <c r="P28" t="s">
-        <v>333</v>
+      <c r="P28" t="n">
+        <v>739024</v>
       </c>
       <c r="Q28" t="n">
         <v>14.49</v>
       </c>
-      <c r="R28" t="s">
-        <v>334</v>
+      <c r="R28" t="n">
+        <v>269476</v>
       </c>
       <c r="S28" t="n">
         <v>20.88</v>
       </c>
-      <c r="T28" t="s">
-        <v>335</v>
+      <c r="T28" t="n">
+        <v>304573</v>
       </c>
       <c r="U28" t="n">
         <v>22.63</v>
       </c>
-      <c r="V28" t="s">
-        <v>336</v>
+      <c r="V28" t="n">
+        <v>175516</v>
       </c>
       <c r="W28" t="n">
         <v>15.49</v>
       </c>
-      <c r="X28" t="s">
-        <v>337</v>
+      <c r="X28" t="n">
+        <v>906266</v>
       </c>
       <c r="Y28" t="n">
         <v>18.05</v>
       </c>
-      <c r="Z28" t="s">
-        <v>338</v>
+      <c r="Z28" t="n">
+        <v>190809</v>
       </c>
       <c r="AA28" t="n">
         <v>19.16</v>
       </c>
-      <c r="AB28" t="s">
-        <v>339</v>
+      <c r="AB28" t="n">
+        <v>193673</v>
       </c>
       <c r="AC28" t="n">
         <v>17.46</v>
       </c>
-      <c r="AD28" t="s">
-        <v>340</v>
+      <c r="AD28" t="n">
+        <v>163025</v>
       </c>
       <c r="AE28" t="n">
         <v>15.45</v>
       </c>
-      <c r="AF28" t="s">
-        <v>341</v>
+      <c r="AF28" t="n">
+        <v>662493</v>
       </c>
       <c r="AG28" t="n">
         <v>15.58</v>
@@ -4135,100 +2911,100 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B29" t="s">
-        <v>326</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="n">
+        <v>151811</v>
       </c>
       <c r="C29" t="n">
         <v>12.61</v>
       </c>
-      <c r="D29" t="s">
-        <v>327</v>
+      <c r="D29" t="n">
+        <v>139937</v>
       </c>
       <c r="E29" t="n">
         <v>12.48</v>
       </c>
-      <c r="F29" t="s">
-        <v>328</v>
+      <c r="F29" t="n">
+        <v>155653</v>
       </c>
       <c r="G29" t="n">
         <v>13.02</v>
       </c>
-      <c r="H29" t="s">
-        <v>329</v>
+      <c r="H29" t="n">
+        <v>542402</v>
       </c>
       <c r="I29" t="n">
         <v>11.14</v>
       </c>
-      <c r="J29" t="s">
-        <v>330</v>
+      <c r="J29" t="n">
+        <v>166438</v>
       </c>
       <c r="K29" t="n">
         <v>13.65</v>
       </c>
-      <c r="L29" t="s">
-        <v>331</v>
+      <c r="L29" t="n">
+        <v>198950</v>
       </c>
       <c r="M29" t="n">
         <v>15.59</v>
       </c>
-      <c r="N29" t="s">
-        <v>332</v>
+      <c r="N29" t="n">
+        <v>175100</v>
       </c>
       <c r="O29" t="n">
         <v>14.16</v>
       </c>
-      <c r="P29" t="s">
-        <v>333</v>
+      <c r="P29" t="n">
+        <v>739024</v>
       </c>
       <c r="Q29" t="n">
         <v>14.49</v>
       </c>
-      <c r="R29" t="s">
-        <v>334</v>
+      <c r="R29" t="n">
+        <v>269476</v>
       </c>
       <c r="S29" t="n">
         <v>20.88</v>
       </c>
-      <c r="T29" t="s">
-        <v>335</v>
+      <c r="T29" t="n">
+        <v>304573</v>
       </c>
       <c r="U29" t="n">
         <v>22.63</v>
       </c>
-      <c r="V29" t="s">
-        <v>336</v>
+      <c r="V29" t="n">
+        <v>175516</v>
       </c>
       <c r="W29" t="n">
         <v>15.49</v>
       </c>
-      <c r="X29" t="s">
-        <v>337</v>
+      <c r="X29" t="n">
+        <v>906266</v>
       </c>
       <c r="Y29" t="n">
         <v>18.05</v>
       </c>
-      <c r="Z29" t="s">
-        <v>338</v>
+      <c r="Z29" t="n">
+        <v>190809</v>
       </c>
       <c r="AA29" t="n">
         <v>19.16</v>
       </c>
-      <c r="AB29" t="s">
-        <v>339</v>
+      <c r="AB29" t="n">
+        <v>193673</v>
       </c>
       <c r="AC29" t="n">
         <v>17.46</v>
       </c>
-      <c r="AD29" t="s">
-        <v>340</v>
+      <c r="AD29" t="n">
+        <v>163025</v>
       </c>
       <c r="AE29" t="n">
         <v>15.45</v>
       </c>
-      <c r="AF29" t="s">
-        <v>341</v>
+      <c r="AF29" t="n">
+        <v>662493</v>
       </c>
       <c r="AG29" t="n">
         <v>15.58</v>
@@ -4236,100 +3012,100 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B30" t="s">
-        <v>344</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="n">
+        <v>53588</v>
       </c>
       <c r="C30" t="n">
         <v>4.45</v>
       </c>
-      <c r="D30" t="s">
-        <v>345</v>
+      <c r="D30" t="n">
+        <v>68600</v>
       </c>
       <c r="E30" t="n">
         <v>6.12</v>
       </c>
-      <c r="F30" t="s">
-        <v>346</v>
+      <c r="F30" t="n">
+        <v>71713</v>
       </c>
       <c r="G30" t="n">
         <v>6</v>
       </c>
-      <c r="H30" t="s">
-        <v>347</v>
+      <c r="H30" t="n">
+        <v>271271</v>
       </c>
       <c r="I30" t="n">
         <v>5.57</v>
       </c>
-      <c r="J30" t="s">
-        <v>348</v>
+      <c r="J30" t="n">
+        <v>63469</v>
       </c>
       <c r="K30" t="n">
         <v>5.21</v>
       </c>
-      <c r="L30" t="s">
-        <v>349</v>
+      <c r="L30" t="n">
+        <v>66344</v>
       </c>
       <c r="M30" t="n">
         <v>5.2</v>
       </c>
-      <c r="N30" t="s">
-        <v>350</v>
+      <c r="N30" t="n">
+        <v>67085</v>
       </c>
       <c r="O30" t="n">
         <v>5.42</v>
       </c>
-      <c r="P30" t="s">
-        <v>351</v>
+      <c r="P30" t="n">
+        <v>298458</v>
       </c>
       <c r="Q30" t="n">
         <v>5.85</v>
       </c>
-      <c r="R30" t="s">
-        <v>352</v>
+      <c r="R30" t="n">
+        <v>71038</v>
       </c>
       <c r="S30" t="n">
         <v>5.5</v>
       </c>
-      <c r="T30" t="s">
-        <v>353</v>
+      <c r="T30" t="n">
+        <v>76855</v>
       </c>
       <c r="U30" t="n">
         <v>5.71</v>
       </c>
-      <c r="V30" t="s">
-        <v>354</v>
+      <c r="V30" t="n">
+        <v>61871</v>
       </c>
       <c r="W30" t="n">
         <v>5.46</v>
       </c>
-      <c r="X30" t="s">
-        <v>355</v>
+      <c r="X30" t="n">
+        <v>281937</v>
       </c>
       <c r="Y30" t="n">
         <v>5.61</v>
       </c>
-      <c r="Z30" t="s">
-        <v>356</v>
+      <c r="Z30" t="n">
+        <v>57790</v>
       </c>
       <c r="AA30" t="n">
         <v>5.8</v>
       </c>
-      <c r="AB30" t="s">
-        <v>357</v>
+      <c r="AB30" t="n">
+        <v>60608</v>
       </c>
       <c r="AC30" t="n">
         <v>5.46</v>
       </c>
-      <c r="AD30" t="s">
-        <v>358</v>
+      <c r="AD30" t="n">
+        <v>64748</v>
       </c>
       <c r="AE30" t="n">
         <v>6.13</v>
       </c>
-      <c r="AF30" t="s">
-        <v>359</v>
+      <c r="AF30" t="n">
+        <v>236273</v>
       </c>
       <c r="AG30" t="n">
         <v>5.56</v>
@@ -4337,7 +3113,7 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>360</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s"/>
       <c r="C31" t="s"/>
@@ -4355,8 +3131,8 @@
       <c r="O31" t="s"/>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s">
-        <v>33</v>
+      <c r="R31" t="n">
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -4378,7 +3154,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>361</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s"/>
       <c r="C32" t="s"/>
@@ -4386,8 +3162,8 @@
       <c r="E32" t="s"/>
       <c r="F32" t="s"/>
       <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>362</v>
+      <c r="H32" t="n">
+        <v>4862</v>
       </c>
       <c r="I32" t="n">
         <v>0.1</v>
@@ -4398,8 +3174,8 @@
       <c r="M32" t="s"/>
       <c r="N32" t="s"/>
       <c r="O32" t="s"/>
-      <c r="P32" t="s">
-        <v>363</v>
+      <c r="P32" t="n">
+        <v>14637</v>
       </c>
       <c r="Q32" t="n">
         <v>0.29</v>
@@ -4410,8 +3186,8 @@
       <c r="U32" t="s"/>
       <c r="V32" t="s"/>
       <c r="W32" t="s"/>
-      <c r="X32" t="s">
-        <v>364</v>
+      <c r="X32" t="n">
+        <v>-8202</v>
       </c>
       <c r="Y32" t="n">
         <v>-0.16</v>
@@ -4422,8 +3198,8 @@
       <c r="AC32" t="s"/>
       <c r="AD32" t="s"/>
       <c r="AE32" t="s"/>
-      <c r="AF32" t="s">
-        <v>282</v>
+      <c r="AF32" t="n">
+        <v>-2506</v>
       </c>
       <c r="AG32" t="n">
         <v>-0.06</v>
@@ -4431,169 +3207,169 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B33" t="s">
-        <v>138</v>
+        <v>63</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.17</v>
       </c>
       <c r="C33" t="s"/>
-      <c r="D33" t="s">
-        <v>139</v>
+      <c r="D33" t="n">
+        <v>0.11</v>
       </c>
       <c r="E33" t="s"/>
-      <c r="F33" t="s">
-        <v>140</v>
+      <c r="F33" t="n">
+        <v>0.14</v>
       </c>
       <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>141</v>
+      <c r="H33" t="n">
+        <v>0.44</v>
       </c>
       <c r="I33" t="s"/>
-      <c r="J33" t="s">
-        <v>142</v>
+      <c r="J33" t="n">
+        <v>0.18</v>
       </c>
       <c r="K33" t="s"/>
-      <c r="L33" t="s">
-        <v>143</v>
+      <c r="L33" t="n">
+        <v>0.37</v>
       </c>
       <c r="M33" t="s"/>
-      <c r="N33" t="s">
-        <v>144</v>
+      <c r="N33" t="n">
+        <v>0.2</v>
       </c>
       <c r="O33" t="s"/>
-      <c r="P33" t="s">
-        <v>366</v>
+      <c r="P33" t="n">
+        <v>0.93</v>
       </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s">
-        <v>367</v>
+      <c r="R33" t="n">
+        <v>0.38</v>
       </c>
       <c r="S33" t="s"/>
-      <c r="T33" t="s">
-        <v>146</v>
+      <c r="T33" t="n">
+        <v>0.39</v>
       </c>
       <c r="U33" t="s"/>
-      <c r="V33" t="s">
-        <v>147</v>
+      <c r="V33" t="n">
+        <v>0.23</v>
       </c>
       <c r="W33" t="s"/>
-      <c r="X33" t="s">
-        <v>368</v>
+      <c r="X33" t="n">
+        <v>1.15</v>
       </c>
       <c r="Y33" t="s"/>
-      <c r="Z33" t="s">
-        <v>369</v>
+      <c r="Z33" t="n">
+        <v>0.25</v>
       </c>
       <c r="AA33" t="s"/>
-      <c r="AB33" t="s">
-        <v>147</v>
+      <c r="AB33" t="n">
+        <v>0.23</v>
       </c>
       <c r="AC33" t="s"/>
-      <c r="AD33" t="s">
-        <v>370</v>
+      <c r="AD33" t="n">
+        <v>0.19</v>
       </c>
       <c r="AE33" t="s"/>
-      <c r="AF33" t="s">
-        <v>150</v>
+      <c r="AF33" t="n">
+        <v>0.78</v>
       </c>
       <c r="AG33" t="s"/>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B34" t="s">
-        <v>372</v>
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>84611</v>
       </c>
       <c r="C34" t="n">
         <v>7.03</v>
       </c>
-      <c r="D34" t="s">
-        <v>373</v>
+      <c r="D34" t="n">
+        <v>53125</v>
       </c>
       <c r="E34" t="n">
         <v>4.74</v>
       </c>
-      <c r="F34" t="s">
-        <v>374</v>
+      <c r="F34" t="n">
+        <v>67502</v>
       </c>
       <c r="G34" t="n">
         <v>5.64</v>
       </c>
-      <c r="H34" t="s">
-        <v>375</v>
+      <c r="H34" t="n">
+        <v>211708</v>
       </c>
       <c r="I34" t="n">
         <v>4.35</v>
       </c>
-      <c r="J34" t="s">
-        <v>376</v>
+      <c r="J34" t="n">
+        <v>86379</v>
       </c>
       <c r="K34" t="n">
         <v>7.08</v>
       </c>
-      <c r="L34" t="s">
-        <v>377</v>
+      <c r="L34" t="n">
+        <v>176580</v>
       </c>
       <c r="M34" t="n">
         <v>13.84</v>
       </c>
-      <c r="N34" t="s">
-        <v>378</v>
+      <c r="N34" t="n">
+        <v>96358</v>
       </c>
       <c r="O34" t="n">
         <v>7.79</v>
       </c>
-      <c r="P34" t="s">
-        <v>379</v>
+      <c r="P34" t="n">
+        <v>438060</v>
       </c>
       <c r="Q34" t="n">
         <v>8.59</v>
       </c>
-      <c r="R34" t="s">
-        <v>380</v>
+      <c r="R34" t="n">
+        <v>186946</v>
       </c>
       <c r="S34" t="n">
         <v>14.48</v>
       </c>
-      <c r="T34" t="s">
-        <v>381</v>
+      <c r="T34" t="n">
+        <v>207234</v>
       </c>
       <c r="U34" t="n">
         <v>15.4</v>
       </c>
-      <c r="V34" t="s">
-        <v>382</v>
+      <c r="V34" t="n">
+        <v>111182</v>
       </c>
       <c r="W34" t="n">
         <v>9.81</v>
       </c>
-      <c r="X34" t="s">
-        <v>383</v>
+      <c r="X34" t="n">
+        <v>616324</v>
       </c>
       <c r="Y34" t="n">
         <v>12.27</v>
       </c>
-      <c r="Z34" t="s">
-        <v>384</v>
+      <c r="Z34" t="n">
+        <v>126794</v>
       </c>
       <c r="AA34" t="n">
         <v>12.73</v>
       </c>
-      <c r="AB34" t="s">
-        <v>385</v>
+      <c r="AB34" t="n">
+        <v>128080</v>
       </c>
       <c r="AC34" t="n">
         <v>11.55</v>
       </c>
-      <c r="AD34" t="s">
-        <v>386</v>
+      <c r="AD34" t="n">
+        <v>96393</v>
       </c>
       <c r="AE34" t="n">
         <v>9.130000000000001</v>
       </c>
-      <c r="AF34" t="s">
-        <v>387</v>
+      <c r="AF34" t="n">
+        <v>401330</v>
       </c>
       <c r="AG34" t="n">
         <v>9.44</v>
@@ -4601,100 +3377,100 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B35" t="s">
-        <v>389</v>
+        <v>65</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34105</v>
       </c>
       <c r="C35" t="n">
         <v>2.83</v>
       </c>
-      <c r="D35" t="s">
-        <v>390</v>
+      <c r="D35" t="n">
+        <v>35350</v>
       </c>
       <c r="E35" t="n">
         <v>3.15</v>
       </c>
-      <c r="F35" t="s">
-        <v>391</v>
+      <c r="F35" t="n">
+        <v>38573</v>
       </c>
       <c r="G35" t="n">
         <v>3.23</v>
       </c>
-      <c r="H35" t="s">
-        <v>392</v>
+      <c r="H35" t="n">
+        <v>149163</v>
       </c>
       <c r="I35" t="n">
         <v>3.06</v>
       </c>
-      <c r="J35" t="s">
-        <v>393</v>
+      <c r="J35" t="n">
+        <v>32359</v>
       </c>
       <c r="K35" t="n">
         <v>2.65</v>
       </c>
-      <c r="L35" t="s">
-        <v>394</v>
+      <c r="L35" t="n">
+        <v>32974</v>
       </c>
       <c r="M35" t="n">
         <v>2.58</v>
       </c>
-      <c r="N35" t="s">
-        <v>395</v>
+      <c r="N35" t="n">
+        <v>35730</v>
       </c>
       <c r="O35" t="n">
         <v>2.89</v>
       </c>
-      <c r="P35" t="s">
-        <v>396</v>
+      <c r="P35" t="n">
+        <v>158685</v>
       </c>
       <c r="Q35" t="n">
         <v>3.11</v>
       </c>
-      <c r="R35" t="s">
-        <v>397</v>
+      <c r="R35" t="n">
+        <v>41101</v>
       </c>
       <c r="S35" t="n">
         <v>3.18</v>
       </c>
-      <c r="T35" t="s">
-        <v>398</v>
+      <c r="T35" t="n">
+        <v>46292</v>
       </c>
       <c r="U35" t="n">
         <v>3.44</v>
       </c>
-      <c r="V35" t="s">
-        <v>399</v>
+      <c r="V35" t="n">
+        <v>33863</v>
       </c>
       <c r="W35" t="n">
         <v>2.99</v>
       </c>
-      <c r="X35" t="s">
-        <v>400</v>
+      <c r="X35" t="n">
+        <v>146059</v>
       </c>
       <c r="Y35" t="n">
         <v>2.91</v>
       </c>
-      <c r="Z35" t="s">
-        <v>401</v>
+      <c r="Z35" t="n">
+        <v>31781</v>
       </c>
       <c r="AA35" t="n">
         <v>3.19</v>
       </c>
-      <c r="AB35" t="s">
-        <v>402</v>
+      <c r="AB35" t="n">
+        <v>32903</v>
       </c>
       <c r="AC35" t="n">
         <v>2.97</v>
       </c>
-      <c r="AD35" t="s">
-        <v>403</v>
+      <c r="AD35" t="n">
+        <v>38393</v>
       </c>
       <c r="AE35" t="n">
         <v>3.64</v>
       </c>
-      <c r="AF35" t="s">
-        <v>404</v>
+      <c r="AF35" t="n">
+        <v>140974</v>
       </c>
       <c r="AG35" t="n">
         <v>3.32</v>
@@ -4702,100 +3478,100 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B36" t="s">
-        <v>190</v>
+        <v>66</v>
+      </c>
+      <c r="B36" t="n">
+        <v>63869</v>
       </c>
       <c r="C36" t="n">
         <v>5.31</v>
       </c>
-      <c r="D36" t="s">
-        <v>191</v>
+      <c r="D36" t="n">
+        <v>42224</v>
       </c>
       <c r="E36" t="n">
         <v>3.76</v>
       </c>
-      <c r="F36" t="s">
-        <v>192</v>
+      <c r="F36" t="n">
+        <v>53016</v>
       </c>
       <c r="G36" t="n">
         <v>4.43</v>
       </c>
-      <c r="H36" t="s">
-        <v>193</v>
+      <c r="H36" t="n">
+        <v>162817</v>
       </c>
       <c r="I36" t="n">
         <v>3.34</v>
       </c>
-      <c r="J36" t="s">
-        <v>194</v>
+      <c r="J36" t="n">
+        <v>68510</v>
       </c>
       <c r="K36" t="n">
         <v>5.62</v>
       </c>
-      <c r="L36" t="s">
-        <v>195</v>
+      <c r="L36" t="n">
+        <v>150408</v>
       </c>
       <c r="M36" t="n">
         <v>11.79</v>
       </c>
-      <c r="N36" t="s">
-        <v>196</v>
+      <c r="N36" t="n">
+        <v>77193</v>
       </c>
       <c r="O36" t="n">
         <v>6.24</v>
       </c>
-      <c r="P36" t="s">
-        <v>197</v>
+      <c r="P36" t="n">
+        <v>367067</v>
       </c>
       <c r="Q36" t="n">
         <v>7.2</v>
       </c>
-      <c r="R36" t="s">
-        <v>198</v>
+      <c r="R36" t="n">
+        <v>155005</v>
       </c>
       <c r="S36" t="n">
         <v>12.01</v>
       </c>
-      <c r="T36" t="s">
-        <v>199</v>
+      <c r="T36" t="n">
+        <v>153855</v>
       </c>
       <c r="U36" t="n">
         <v>11.43</v>
       </c>
-      <c r="V36" t="s">
-        <v>406</v>
+      <c r="V36" t="n">
+        <v>94060</v>
       </c>
       <c r="W36" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="X36" t="s">
-        <v>407</v>
+      <c r="X36" t="n">
+        <v>503435</v>
       </c>
       <c r="Y36" t="n">
         <v>10.03</v>
       </c>
-      <c r="Z36" t="s">
-        <v>408</v>
+      <c r="Z36" t="n">
+        <v>105378</v>
       </c>
       <c r="AA36" t="n">
         <v>10.58</v>
       </c>
-      <c r="AB36" t="s">
-        <v>409</v>
+      <c r="AB36" t="n">
+        <v>98168</v>
       </c>
       <c r="AC36" t="n">
         <v>8.85</v>
       </c>
-      <c r="AD36" t="s">
-        <v>410</v>
+      <c r="AD36" t="n">
+        <v>78937</v>
       </c>
       <c r="AE36" t="n">
         <v>7.48</v>
       </c>
-      <c r="AF36" t="s">
-        <v>411</v>
+      <c r="AF36" t="n">
+        <v>324202</v>
       </c>
       <c r="AG36" t="n">
         <v>7.63</v>
@@ -4803,7 +3579,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>412</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s"/>
       <c r="C37" t="s"/>
@@ -4827,8 +3603,8 @@
       <c r="U37" t="s"/>
       <c r="V37" t="s"/>
       <c r="W37" t="s"/>
-      <c r="X37" t="s">
-        <v>413</v>
+      <c r="X37" t="n">
+        <v>1.22</v>
       </c>
       <c r="Y37" t="s"/>
       <c r="Z37" t="s"/>
@@ -4837,14 +3613,14 @@
       <c r="AC37" t="s"/>
       <c r="AD37" t="s"/>
       <c r="AE37" t="s"/>
-      <c r="AF37" t="s">
-        <v>414</v>
+      <c r="AF37" t="n">
+        <v>0.8</v>
       </c>
       <c r="AG37" t="s"/>
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="1" t="s">
-        <v>415</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s"/>
       <c r="C38" t="s"/>
@@ -4862,8 +3638,8 @@
       <c r="O38" t="s"/>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="s">
-        <v>33</v>
+      <c r="R38" t="n">
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -4885,7 +3661,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="1" t="s">
-        <v>416</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s"/>
       <c r="C39" t="s"/>
@@ -4903,8 +3679,8 @@
       <c r="O39" t="s"/>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s">
-        <v>33</v>
+      <c r="R39" t="n">
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -4926,100 +3702,100 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B40" t="s">
-        <v>418</v>
+        <v>70</v>
+      </c>
+      <c r="B40" t="n">
+        <v>18312</v>
       </c>
       <c r="C40" t="n">
         <v>1.52</v>
       </c>
-      <c r="D40" t="s">
-        <v>419</v>
+      <c r="D40" t="n">
+        <v>17444</v>
       </c>
       <c r="E40" t="n">
         <v>1.56</v>
       </c>
-      <c r="F40" t="s">
-        <v>420</v>
+      <c r="F40" t="n">
+        <v>16981</v>
       </c>
       <c r="G40" t="n">
         <v>1.42</v>
       </c>
-      <c r="H40" t="s">
-        <v>421</v>
+      <c r="H40" t="n">
+        <v>69349</v>
       </c>
       <c r="I40" t="n">
         <v>1.42</v>
       </c>
-      <c r="J40" t="s">
-        <v>422</v>
+      <c r="J40" t="n">
+        <v>15444</v>
       </c>
       <c r="K40" t="n">
         <v>1.27</v>
       </c>
-      <c r="L40" t="s">
-        <v>423</v>
+      <c r="L40" t="n">
+        <v>14801</v>
       </c>
       <c r="M40" t="n">
         <v>1.16</v>
       </c>
-      <c r="N40" t="s">
-        <v>424</v>
+      <c r="N40" t="n">
+        <v>14524</v>
       </c>
       <c r="O40" t="n">
         <v>1.17</v>
       </c>
-      <c r="P40" t="s">
-        <v>425</v>
+      <c r="P40" t="n">
+        <v>58351</v>
       </c>
       <c r="Q40" t="n">
         <v>1.14</v>
       </c>
-      <c r="R40" t="s">
-        <v>426</v>
+      <c r="R40" t="n">
+        <v>12288</v>
       </c>
       <c r="S40" t="n">
         <v>0.95</v>
       </c>
-      <c r="T40" t="s">
-        <v>427</v>
+      <c r="T40" t="n">
+        <v>11429</v>
       </c>
       <c r="U40" t="n">
         <v>0.85</v>
       </c>
-      <c r="V40" t="s">
-        <v>428</v>
+      <c r="V40" t="n">
+        <v>10701</v>
       </c>
       <c r="W40" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="X40" t="s">
-        <v>429</v>
+      <c r="X40" t="n">
+        <v>42627</v>
       </c>
       <c r="Y40" t="n">
         <v>0.85</v>
       </c>
-      <c r="Z40" t="s">
-        <v>430</v>
+      <c r="Z40" t="n">
+        <v>7511</v>
       </c>
       <c r="AA40" t="n">
         <v>0.75</v>
       </c>
-      <c r="AB40" t="s">
-        <v>431</v>
+      <c r="AB40" t="n">
+        <v>7897</v>
       </c>
       <c r="AC40" t="n">
         <v>0.71</v>
       </c>
-      <c r="AD40" t="s">
-        <v>432</v>
+      <c r="AD40" t="n">
+        <v>7885</v>
       </c>
       <c r="AE40" t="n">
         <v>0.75</v>
       </c>
-      <c r="AF40" t="s">
-        <v>433</v>
+      <c r="AF40" t="n">
+        <v>31239</v>
       </c>
       <c r="AG40" t="n">
         <v>0.73</v>
@@ -5027,16 +3803,16 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
+        <v>71</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="s">
-        <v>33</v>
+      <c r="D41" t="n">
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -5045,14 +3821,14 @@
       <c r="G41" t="s"/>
       <c r="H41" t="s"/>
       <c r="I41" t="s"/>
-      <c r="J41" t="s">
-        <v>33</v>
+      <c r="J41" t="n">
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
-      <c r="L41" t="s">
-        <v>33</v>
+      <c r="L41" t="n">
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -5080,46 +3856,46 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B42" t="s">
-        <v>436</v>
+        <v>72</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2736</v>
       </c>
       <c r="C42" t="n">
         <v>0.23</v>
       </c>
-      <c r="D42" t="s">
-        <v>437</v>
+      <c r="D42" t="n">
+        <v>3013</v>
       </c>
       <c r="E42" t="n">
         <v>0.27</v>
       </c>
-      <c r="F42" t="s">
-        <v>438</v>
+      <c r="F42" t="n">
+        <v>1724</v>
       </c>
       <c r="G42" t="n">
         <v>0.14</v>
       </c>
-      <c r="H42" t="s">
-        <v>439</v>
+      <c r="H42" t="n">
+        <v>9695</v>
       </c>
       <c r="I42" t="n">
         <v>0.2</v>
       </c>
-      <c r="J42" t="s">
-        <v>440</v>
+      <c r="J42" t="n">
+        <v>1630</v>
       </c>
       <c r="K42" t="n">
         <v>0.13</v>
       </c>
-      <c r="L42" t="s">
-        <v>441</v>
+      <c r="L42" t="n">
+        <v>1812</v>
       </c>
       <c r="M42" t="n">
         <v>0.14</v>
       </c>
-      <c r="N42" t="s">
-        <v>442</v>
+      <c r="N42" t="n">
+        <v>2450</v>
       </c>
       <c r="O42" t="n">
         <v>0.2</v>
@@ -5145,46 +3921,46 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B43" t="s">
-        <v>444</v>
+        <v>73</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1206407</v>
       </c>
       <c r="C43" t="n">
         <v>100.23</v>
       </c>
-      <c r="D43" t="s">
-        <v>445</v>
+      <c r="D43" t="n">
+        <v>1124747</v>
       </c>
       <c r="E43" t="n">
         <v>100.27</v>
       </c>
-      <c r="F43" t="s">
-        <v>446</v>
+      <c r="F43" t="n">
+        <v>1197527</v>
       </c>
       <c r="G43" t="n">
         <v>100.14</v>
       </c>
-      <c r="H43" t="s">
-        <v>447</v>
+      <c r="H43" t="n">
+        <v>4879285</v>
       </c>
       <c r="I43" t="n">
         <v>100.2</v>
       </c>
-      <c r="J43" t="s">
-        <v>448</v>
+      <c r="J43" t="n">
+        <v>1220977</v>
       </c>
       <c r="K43" t="n">
         <v>100.13</v>
       </c>
-      <c r="L43" t="s">
-        <v>449</v>
+      <c r="L43" t="n">
+        <v>1278072</v>
       </c>
       <c r="M43" t="n">
         <v>100.14</v>
       </c>
-      <c r="N43" t="s">
-        <v>450</v>
+      <c r="N43" t="n">
+        <v>1239133</v>
       </c>
       <c r="O43" t="n">
         <v>100.2</v>
@@ -5210,46 +3986,46 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B44" t="s">
-        <v>309</v>
+        <v>74</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1203671</v>
       </c>
       <c r="C44" t="n">
         <v>100</v>
       </c>
-      <c r="D44" t="s">
-        <v>310</v>
+      <c r="D44" t="n">
+        <v>1121734</v>
       </c>
       <c r="E44" t="n">
         <v>100</v>
       </c>
-      <c r="F44" t="s">
-        <v>311</v>
+      <c r="F44" t="n">
+        <v>1195803</v>
       </c>
       <c r="G44" t="n">
         <v>100</v>
       </c>
-      <c r="H44" t="s">
-        <v>312</v>
+      <c r="H44" t="n">
+        <v>4869590</v>
       </c>
       <c r="I44" t="n">
         <v>100</v>
       </c>
-      <c r="J44" t="s">
-        <v>313</v>
+      <c r="J44" t="n">
+        <v>1219347</v>
       </c>
       <c r="K44" t="n">
         <v>100</v>
       </c>
-      <c r="L44" t="s">
-        <v>314</v>
+      <c r="L44" t="n">
+        <v>1276260</v>
       </c>
       <c r="M44" t="n">
         <v>100</v>
       </c>
-      <c r="N44" t="s">
-        <v>315</v>
+      <c r="N44" t="n">
+        <v>1236683</v>
       </c>
       <c r="O44" t="n">
         <v>100</v>
@@ -5275,16 +4051,16 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B45" t="s">
-        <v>33</v>
+        <v>75</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
-      <c r="D45" t="s">
-        <v>33</v>
+      <c r="D45" t="n">
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -5293,14 +4069,14 @@
       <c r="G45" t="s"/>
       <c r="H45" t="s"/>
       <c r="I45" t="s"/>
-      <c r="J45" t="s">
-        <v>33</v>
+      <c r="J45" t="n">
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
-      <c r="L45" t="s">
-        <v>33</v>
+      <c r="L45" t="n">
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -5328,100 +4104,100 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B46" t="s">
-        <v>454</v>
+        <v>76</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-5685</v>
       </c>
       <c r="C46" t="n">
         <v>-0.47</v>
       </c>
-      <c r="D46" t="s">
-        <v>455</v>
+      <c r="D46" t="n">
+        <v>-3927</v>
       </c>
       <c r="E46" t="n">
         <v>-0.35</v>
       </c>
-      <c r="F46" t="s">
-        <v>456</v>
+      <c r="F46" t="n">
+        <v>-2286</v>
       </c>
       <c r="G46" t="n">
         <v>-0.19</v>
       </c>
-      <c r="H46" t="s">
-        <v>457</v>
+      <c r="H46" t="n">
+        <v>-16628</v>
       </c>
       <c r="I46" t="n">
         <v>-0.34</v>
       </c>
-      <c r="J46" t="s">
-        <v>458</v>
+      <c r="J46" t="n">
+        <v>-4505</v>
       </c>
       <c r="K46" t="n">
         <v>-0.37</v>
       </c>
-      <c r="L46" t="s">
-        <v>459</v>
+      <c r="L46" t="n">
+        <v>-1152</v>
       </c>
       <c r="M46" t="n">
         <v>-0.09</v>
       </c>
-      <c r="N46" t="s">
-        <v>460</v>
+      <c r="N46" t="n">
+        <v>-4185</v>
       </c>
       <c r="O46" t="n">
         <v>-0.34</v>
       </c>
-      <c r="P46" t="s">
-        <v>461</v>
+      <c r="P46" t="n">
+        <v>-12473</v>
       </c>
       <c r="Q46" t="n">
         <v>-0.24</v>
       </c>
-      <c r="R46" t="s">
-        <v>462</v>
+      <c r="R46" t="n">
+        <v>-1293</v>
       </c>
       <c r="S46" t="n">
         <v>-0.1</v>
       </c>
-      <c r="T46" t="s">
-        <v>463</v>
+      <c r="T46" t="n">
+        <v>-5395</v>
       </c>
       <c r="U46" t="n">
         <v>-0.4</v>
       </c>
-      <c r="V46" t="s">
-        <v>464</v>
+      <c r="V46" t="n">
+        <v>-1146</v>
       </c>
       <c r="W46" t="n">
         <v>-0.1</v>
       </c>
-      <c r="X46" t="s">
-        <v>465</v>
+      <c r="X46" t="n">
+        <v>-7398</v>
       </c>
       <c r="Y46" t="n">
         <v>-0.15</v>
       </c>
-      <c r="Z46" t="s">
-        <v>466</v>
+      <c r="Z46" t="n">
+        <v>979</v>
       </c>
       <c r="AA46" t="n">
         <v>0.1</v>
       </c>
-      <c r="AB46" t="s">
-        <v>467</v>
+      <c r="AB46" t="n">
+        <v>-1059</v>
       </c>
       <c r="AC46" t="n">
         <v>-0.1</v>
       </c>
-      <c r="AD46" t="s">
-        <v>468</v>
+      <c r="AD46" t="n">
+        <v>-230</v>
       </c>
       <c r="AE46" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AF46" t="s">
-        <v>469</v>
+      <c r="AF46" t="n">
+        <v>-257</v>
       </c>
       <c r="AG46" t="n">
         <v>-0.01</v>
@@ -5429,100 +4205,100 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B47" t="s">
-        <v>471</v>
+        <v>77</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-6656</v>
       </c>
       <c r="C47" t="n">
         <v>-0.55</v>
       </c>
-      <c r="D47" t="s">
-        <v>472</v>
+      <c r="D47" t="n">
+        <v>-4048</v>
       </c>
       <c r="E47" t="n">
         <v>-0.36</v>
       </c>
-      <c r="F47" t="s">
-        <v>473</v>
+      <c r="F47" t="n">
+        <v>-2007</v>
       </c>
       <c r="G47" t="n">
         <v>-0.17</v>
       </c>
-      <c r="H47" t="s">
-        <v>474</v>
+      <c r="H47" t="n">
+        <v>-18366</v>
       </c>
       <c r="I47" t="n">
         <v>-0.38</v>
       </c>
-      <c r="J47" t="s">
-        <v>475</v>
+      <c r="J47" t="n">
+        <v>-2240</v>
       </c>
       <c r="K47" t="n">
         <v>-0.18</v>
       </c>
-      <c r="L47" t="s">
-        <v>476</v>
+      <c r="L47" t="n">
+        <v>-834</v>
       </c>
       <c r="M47" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="N47" t="s">
-        <v>477</v>
+      <c r="N47" t="n">
+        <v>-4730</v>
       </c>
       <c r="O47" t="n">
         <v>-0.38</v>
       </c>
-      <c r="P47" t="s">
-        <v>478</v>
+      <c r="P47" t="n">
+        <v>-11325</v>
       </c>
       <c r="Q47" t="n">
         <v>-0.22</v>
       </c>
-      <c r="R47" t="s">
-        <v>479</v>
+      <c r="R47" t="n">
+        <v>-1116</v>
       </c>
       <c r="S47" t="n">
         <v>-0.09</v>
       </c>
-      <c r="T47" t="s">
-        <v>480</v>
+      <c r="T47" t="n">
+        <v>-5273</v>
       </c>
       <c r="U47" t="n">
         <v>-0.39</v>
       </c>
-      <c r="V47" t="s">
-        <v>481</v>
+      <c r="V47" t="n">
+        <v>-1176</v>
       </c>
       <c r="W47" t="n">
         <v>-0.1</v>
       </c>
-      <c r="X47" t="s">
-        <v>482</v>
+      <c r="X47" t="n">
+        <v>-7186</v>
       </c>
       <c r="Y47" t="n">
         <v>-0.14</v>
       </c>
-      <c r="Z47" t="s">
-        <v>466</v>
+      <c r="Z47" t="n">
+        <v>979</v>
       </c>
       <c r="AA47" t="n">
         <v>0.1</v>
       </c>
-      <c r="AB47" t="s">
-        <v>483</v>
+      <c r="AB47" t="n">
+        <v>-1062</v>
       </c>
       <c r="AC47" t="n">
         <v>-0.1</v>
       </c>
-      <c r="AD47" t="s">
-        <v>484</v>
+      <c r="AD47" t="n">
+        <v>-234</v>
       </c>
       <c r="AE47" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AF47" t="s">
-        <v>485</v>
+      <c r="AF47" t="n">
+        <v>-266</v>
       </c>
       <c r="AG47" t="n">
         <v>-0.01</v>
